--- a/outputs-r202/train-f__Muribaculaceae.xlsx
+++ b/outputs-r202/train-f__Muribaculaceae.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="501">
   <si>
     <t>Row</t>
   </si>
@@ -1232,6 +1233,294 @@
   </si>
   <si>
     <t>GB_GCA_004557195.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001941205.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001941205.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900539915.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900547825.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900547825.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900547825.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000431215.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000431215.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000431215.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000431215.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000431215.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900752535.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900752535.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900752535.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000437795.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004561555.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004561555.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900541555.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900541555.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900541935.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900544305.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900544305.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900548875.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900548875.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900550025.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001701295.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002361155.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009177205.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009775375.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900541835.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900760735.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900760815.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003979155.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900548975.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900544535.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003762875.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003762875.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_004766125.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_004766125.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_004803915.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900759815.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900759815.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900759815.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900759955.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900759955.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001689445.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001689445.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001689445.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001689445.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001689445.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001689445.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001689445.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001689405.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003150235.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003150235.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009775095.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002201515.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900546365.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900551515.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900553585.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003762715.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003762715.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902795825.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902795825.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902795825.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902795825.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004562065.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004557385.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004557385.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004557385.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004563195.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004563195.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004563195.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900769345.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002476625.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774055.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902779125.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902779125.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902781045.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900770215.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002490725.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900759865.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900759865.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_011959405.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_011959405.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001701135.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001701135.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900540205.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900545955.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900546835.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900548705.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900555165.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004557195.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004557195.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004557195.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004557195.1_7.fasta</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1541,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1268,11 +1557,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1282,6 +1573,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -26635,4 +26928,6341 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U97"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="true"/>
+    <col min="2" max="2" width="17.28515625" customWidth="true"/>
+    <col min="3" max="3" width="15.5703125" customWidth="true"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" customWidth="true"/>
+    <col min="6" max="6" width="15.7109375" customWidth="true"/>
+    <col min="7" max="7" width="15.7109375" customWidth="true"/>
+    <col min="8" max="8" width="15.5703125" customWidth="true"/>
+    <col min="9" max="9" width="15.5703125" customWidth="true"/>
+    <col min="10" max="10" width="15.5703125" customWidth="true"/>
+    <col min="11" max="11" width="15.85546875" customWidth="true"/>
+    <col min="12" max="12" width="19.7109375" customWidth="true"/>
+    <col min="13" max="13" width="15.5703125" customWidth="true"/>
+    <col min="14" max="14" width="15.5703125" customWidth="true"/>
+    <col min="15" max="15" width="15.5703125" customWidth="true"/>
+    <col min="16" max="16" width="15.7109375" customWidth="true"/>
+    <col min="17" max="17" width="15.5703125" customWidth="true"/>
+    <col min="18" max="18" width="15.7109375" customWidth="true"/>
+    <col min="19" max="19" width="15.5703125" customWidth="true"/>
+    <col min="20" max="20" width="10.28515625" customWidth="true"/>
+    <col min="21" max="21" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2">
+        <v>0.96387801632011716</v>
+      </c>
+      <c r="C2">
+        <v>2.2202891935521974e-14</v>
+      </c>
+      <c r="D2">
+        <v>0.0024811186114482367</v>
+      </c>
+      <c r="E2">
+        <v>0.0048746094694525821</v>
+      </c>
+      <c r="F2">
+        <v>0.018607117886817903</v>
+      </c>
+      <c r="G2">
+        <v>0.0021758651933411863</v>
+      </c>
+      <c r="H2">
+        <v>2.2202891935521974e-14</v>
+      </c>
+      <c r="I2">
+        <v>2.2202891935521974e-14</v>
+      </c>
+      <c r="J2">
+        <v>2.2202891935521974e-14</v>
+      </c>
+      <c r="K2">
+        <v>2.2202891935521974e-14</v>
+      </c>
+      <c r="L2">
+        <v>0.0072058540911872117</v>
+      </c>
+      <c r="M2">
+        <v>2.2202891935521974e-14</v>
+      </c>
+      <c r="N2">
+        <v>2.2202891935521974e-14</v>
+      </c>
+      <c r="O2">
+        <v>2.2202891935521974e-14</v>
+      </c>
+      <c r="P2">
+        <v>0.00053991733888190648</v>
+      </c>
+      <c r="Q2">
+        <v>2.2202891935521974e-14</v>
+      </c>
+      <c r="R2">
+        <v>0.00023750108853169146</v>
+      </c>
+      <c r="S2">
+        <v>2.2202891935521974e-14</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B3">
+        <v>0.96690159542310505</v>
+      </c>
+      <c r="C3">
+        <v>2.3358664829031134e-14</v>
+      </c>
+      <c r="D3">
+        <v>0.0039801667938762246</v>
+      </c>
+      <c r="E3">
+        <v>0.0017599961998018374</v>
+      </c>
+      <c r="F3">
+        <v>0.012784350689501832</v>
+      </c>
+      <c r="G3">
+        <v>0.010350260635802707</v>
+      </c>
+      <c r="H3">
+        <v>2.3358664829030695e-14</v>
+      </c>
+      <c r="I3">
+        <v>2.3358664829030695e-14</v>
+      </c>
+      <c r="J3">
+        <v>2.3358664829030695e-14</v>
+      </c>
+      <c r="K3">
+        <v>2.3358664829030676e-14</v>
+      </c>
+      <c r="L3">
+        <v>0.0022146542536037235</v>
+      </c>
+      <c r="M3">
+        <v>2.335866482903066e-14</v>
+      </c>
+      <c r="N3">
+        <v>2.335866482903066e-14</v>
+      </c>
+      <c r="O3">
+        <v>2.335866482903066e-14</v>
+      </c>
+      <c r="P3">
+        <v>0.00070864050195927272</v>
+      </c>
+      <c r="Q3">
+        <v>2.3358664829030663e-14</v>
+      </c>
+      <c r="R3">
+        <v>0.0013003355021160552</v>
+      </c>
+      <c r="S3">
+        <v>2.3358664829031099e-14</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B4">
+        <v>0.93993264174946101</v>
+      </c>
+      <c r="C4">
+        <v>2.2202597401746177e-14</v>
+      </c>
+      <c r="D4">
+        <v>0.00017741017996166503</v>
+      </c>
+      <c r="E4">
+        <v>0.049168913938116593</v>
+      </c>
+      <c r="F4">
+        <v>0.0031874740763026379</v>
+      </c>
+      <c r="G4">
+        <v>0.00596746737346379</v>
+      </c>
+      <c r="H4">
+        <v>2.2202597401746177e-14</v>
+      </c>
+      <c r="I4">
+        <v>2.2202597401746177e-14</v>
+      </c>
+      <c r="J4">
+        <v>2.2202597401746177e-14</v>
+      </c>
+      <c r="K4">
+        <v>2.2202597401746177e-14</v>
+      </c>
+      <c r="L4">
+        <v>0.0014108045987715153</v>
+      </c>
+      <c r="M4">
+        <v>2.2202597401746177e-14</v>
+      </c>
+      <c r="N4">
+        <v>2.2202597401746177e-14</v>
+      </c>
+      <c r="O4">
+        <v>2.2202597401746177e-14</v>
+      </c>
+      <c r="P4">
+        <v>0.00015528754174227018</v>
+      </c>
+      <c r="Q4">
+        <v>2.2202597401746177e-14</v>
+      </c>
+      <c r="R4">
+        <v>5.4195849352027891e-10</v>
+      </c>
+      <c r="S4">
+        <v>2.2202597401746177e-14</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B5">
+        <v>0.92477208714016157</v>
+      </c>
+      <c r="C5">
+        <v>3.5176881657384224e-14</v>
+      </c>
+      <c r="D5">
+        <v>0.0018754293152255476</v>
+      </c>
+      <c r="E5">
+        <v>0.017253402638506679</v>
+      </c>
+      <c r="F5">
+        <v>0.0042490283579721079</v>
+      </c>
+      <c r="G5">
+        <v>0.032894710455582774</v>
+      </c>
+      <c r="H5">
+        <v>3.5176881657384179e-14</v>
+      </c>
+      <c r="I5">
+        <v>3.5176881657384173e-14</v>
+      </c>
+      <c r="J5">
+        <v>3.5176881657384173e-14</v>
+      </c>
+      <c r="K5">
+        <v>3.5176881657384205e-14</v>
+      </c>
+      <c r="L5">
+        <v>0.01590023039133695</v>
+      </c>
+      <c r="M5">
+        <v>3.5176881657384205e-14</v>
+      </c>
+      <c r="N5">
+        <v>3.5176881657384224e-14</v>
+      </c>
+      <c r="O5">
+        <v>3.5176881657384224e-14</v>
+      </c>
+      <c r="P5">
+        <v>0.0025333584570337649</v>
+      </c>
+      <c r="Q5">
+        <v>3.5176881657384205e-14</v>
+      </c>
+      <c r="R5">
+        <v>0.00052175324382892213</v>
+      </c>
+      <c r="S5">
+        <v>3.5176881657384186e-14</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B6">
+        <v>0.94971368023414915</v>
+      </c>
+      <c r="C6">
+        <v>2.2203018069778198e-14</v>
+      </c>
+      <c r="D6">
+        <v>0.00099368171385249031</v>
+      </c>
+      <c r="E6">
+        <v>0.011202881509594148</v>
+      </c>
+      <c r="F6">
+        <v>0.0026340247384618056</v>
+      </c>
+      <c r="G6">
+        <v>0.028766546236719655</v>
+      </c>
+      <c r="H6">
+        <v>2.2203018069778198e-14</v>
+      </c>
+      <c r="I6">
+        <v>2.2203018069778198e-14</v>
+      </c>
+      <c r="J6">
+        <v>2.2203018069778198e-14</v>
+      </c>
+      <c r="K6">
+        <v>2.2203018069778198e-14</v>
+      </c>
+      <c r="L6">
+        <v>0.005048090487872023</v>
+      </c>
+      <c r="M6">
+        <v>2.2203018069778198e-14</v>
+      </c>
+      <c r="N6">
+        <v>2.2203018069778198e-14</v>
+      </c>
+      <c r="O6">
+        <v>2.2203018069778198e-14</v>
+      </c>
+      <c r="P6">
+        <v>0.0015553303943106357</v>
+      </c>
+      <c r="Q6">
+        <v>2.2203018069778198e-14</v>
+      </c>
+      <c r="R6">
+        <v>8.576468481801935e-05</v>
+      </c>
+      <c r="S6">
+        <v>2.2203018069778198e-14</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7">
+        <v>0.94502909241931288</v>
+      </c>
+      <c r="C7">
+        <v>2.3170779705838677e-14</v>
+      </c>
+      <c r="D7">
+        <v>0.0012704288298046016</v>
+      </c>
+      <c r="E7">
+        <v>0.020325697170731589</v>
+      </c>
+      <c r="F7">
+        <v>0.0046206004970097006</v>
+      </c>
+      <c r="G7">
+        <v>0.013581340423141276</v>
+      </c>
+      <c r="H7">
+        <v>2.3170779705838643e-14</v>
+      </c>
+      <c r="I7">
+        <v>2.3170779705838643e-14</v>
+      </c>
+      <c r="J7">
+        <v>2.3170779705838643e-14</v>
+      </c>
+      <c r="K7">
+        <v>2.3170779705838639e-14</v>
+      </c>
+      <c r="L7">
+        <v>0.013609377092100305</v>
+      </c>
+      <c r="M7">
+        <v>2.3170779705838636e-14</v>
+      </c>
+      <c r="N7">
+        <v>2.3170779705838636e-14</v>
+      </c>
+      <c r="O7">
+        <v>2.3170779705838636e-14</v>
+      </c>
+      <c r="P7">
+        <v>0.0013947746805850379</v>
+      </c>
+      <c r="Q7">
+        <v>2.3170779705838649e-14</v>
+      </c>
+      <c r="R7">
+        <v>0.00016868888708263698</v>
+      </c>
+      <c r="S7">
+        <v>2.3170779705838643e-14</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B8">
+        <v>7.0997475156990013e-08</v>
+      </c>
+      <c r="C8">
+        <v>0.98326055982704574</v>
+      </c>
+      <c r="D8">
+        <v>2.8905538342673088e-05</v>
+      </c>
+      <c r="E8">
+        <v>5.2086630831234867e-05</v>
+      </c>
+      <c r="F8">
+        <v>0.016379449649100201</v>
+      </c>
+      <c r="G8">
+        <v>0.00027072172469247034</v>
+      </c>
+      <c r="H8">
+        <v>2.2200697456952703e-14</v>
+      </c>
+      <c r="I8">
+        <v>2.2200697456952703e-14</v>
+      </c>
+      <c r="J8">
+        <v>2.2200697456952703e-14</v>
+      </c>
+      <c r="K8">
+        <v>2.2200697456952703e-14</v>
+      </c>
+      <c r="L8">
+        <v>6.9990694713831004e-08</v>
+      </c>
+      <c r="M8">
+        <v>2.2200697456952703e-14</v>
+      </c>
+      <c r="N8">
+        <v>2.2200697456952703e-14</v>
+      </c>
+      <c r="O8">
+        <v>2.2200697456952703e-14</v>
+      </c>
+      <c r="P8">
+        <v>8.1245765582019979e-06</v>
+      </c>
+      <c r="Q8">
+        <v>2.2200697456952703e-14</v>
+      </c>
+      <c r="R8">
+        <v>1.1065059867106807e-08</v>
+      </c>
+      <c r="S8">
+        <v>2.2200697456952703e-14</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B9">
+        <v>9.5642924109744312e-09</v>
+      </c>
+      <c r="C9">
+        <v>0.989067910744026</v>
+      </c>
+      <c r="D9">
+        <v>2.2471270157802791e-05</v>
+      </c>
+      <c r="E9">
+        <v>7.2587208447224801e-05</v>
+      </c>
+      <c r="F9">
+        <v>0.008875810478278328</v>
+      </c>
+      <c r="G9">
+        <v>0.0019253764864649134</v>
+      </c>
+      <c r="H9">
+        <v>2.2202047001254753e-14</v>
+      </c>
+      <c r="I9">
+        <v>2.2202047001254753e-14</v>
+      </c>
+      <c r="J9">
+        <v>2.2202047001254753e-14</v>
+      </c>
+      <c r="K9">
+        <v>2.2202047001254753e-14</v>
+      </c>
+      <c r="L9">
+        <v>1.0704087503823199e-05</v>
+      </c>
+      <c r="M9">
+        <v>2.2202047001254753e-14</v>
+      </c>
+      <c r="N9">
+        <v>2.2202047001254753e-14</v>
+      </c>
+      <c r="O9">
+        <v>2.2202047001254753e-14</v>
+      </c>
+      <c r="P9">
+        <v>2.5049374612741401e-05</v>
+      </c>
+      <c r="Q9">
+        <v>2.2202047001254753e-14</v>
+      </c>
+      <c r="R9">
+        <v>8.0786017002346098e-08</v>
+      </c>
+      <c r="S9">
+        <v>2.2202047001254753e-14</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B10">
+        <v>2.8122129411517236e-08</v>
+      </c>
+      <c r="C10">
+        <v>0.98599394855510447</v>
+      </c>
+      <c r="D10">
+        <v>8.1168256609046816e-05</v>
+      </c>
+      <c r="E10">
+        <v>6.5718664095338179e-05</v>
+      </c>
+      <c r="F10">
+        <v>0.008793465868775812</v>
+      </c>
+      <c r="G10">
+        <v>0.0050072051912466234</v>
+      </c>
+      <c r="H10">
+        <v>2.2203253656244666e-14</v>
+      </c>
+      <c r="I10">
+        <v>2.2203253656244666e-14</v>
+      </c>
+      <c r="J10">
+        <v>2.2203253656244666e-14</v>
+      </c>
+      <c r="K10">
+        <v>2.2203253656244666e-14</v>
+      </c>
+      <c r="L10">
+        <v>2.2272179193683419e-06</v>
+      </c>
+      <c r="M10">
+        <v>2.2203253656244666e-14</v>
+      </c>
+      <c r="N10">
+        <v>2.2203253656244666e-14</v>
+      </c>
+      <c r="O10">
+        <v>2.2203253656244666e-14</v>
+      </c>
+      <c r="P10">
+        <v>5.5963568620637507e-05</v>
+      </c>
+      <c r="Q10">
+        <v>2.2203253656244666e-14</v>
+      </c>
+      <c r="R10">
+        <v>2.7455529960916093e-07</v>
+      </c>
+      <c r="S10">
+        <v>2.2203253656244666e-14</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B11">
+        <v>3.3855200840473086e-08</v>
+      </c>
+      <c r="C11">
+        <v>0.97424654107881548</v>
+      </c>
+      <c r="D11">
+        <v>3.6298679257803234e-05</v>
+      </c>
+      <c r="E11">
+        <v>0.00016121278445658917</v>
+      </c>
+      <c r="F11">
+        <v>0.024849439647502296</v>
+      </c>
+      <c r="G11">
+        <v>0.0006941843063542378</v>
+      </c>
+      <c r="H11">
+        <v>2.2199869735773265e-14</v>
+      </c>
+      <c r="I11">
+        <v>2.2199869735773265e-14</v>
+      </c>
+      <c r="J11">
+        <v>2.2199869735773265e-14</v>
+      </c>
+      <c r="K11">
+        <v>2.2199869735773265e-14</v>
+      </c>
+      <c r="L11">
+        <v>1.8898188662212466e-07</v>
+      </c>
+      <c r="M11">
+        <v>2.2199869735773265e-14</v>
+      </c>
+      <c r="N11">
+        <v>2.2199869735773265e-14</v>
+      </c>
+      <c r="O11">
+        <v>2.2199869735773265e-14</v>
+      </c>
+      <c r="P11">
+        <v>1.1976166798083294e-05</v>
+      </c>
+      <c r="Q11">
+        <v>2.2199869735773265e-14</v>
+      </c>
+      <c r="R11">
+        <v>1.2449952820029155e-07</v>
+      </c>
+      <c r="S11">
+        <v>2.2199869735773265e-14</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12">
+        <v>4.1790198319946987e-09</v>
+      </c>
+      <c r="C12">
+        <v>0.97768267219163496</v>
+      </c>
+      <c r="D12">
+        <v>0.00024298992688412806</v>
+      </c>
+      <c r="E12">
+        <v>3.8492005806661003e-05</v>
+      </c>
+      <c r="F12">
+        <v>0.0053782955057691912</v>
+      </c>
+      <c r="G12">
+        <v>0.015777771119737025</v>
+      </c>
+      <c r="H12">
+        <v>2.2203116426204886e-14</v>
+      </c>
+      <c r="I12">
+        <v>2.2203116426204886e-14</v>
+      </c>
+      <c r="J12">
+        <v>2.2203116426204886e-14</v>
+      </c>
+      <c r="K12">
+        <v>2.2203116426204886e-14</v>
+      </c>
+      <c r="L12">
+        <v>0.00029242758414291752</v>
+      </c>
+      <c r="M12">
+        <v>2.2203116426204886e-14</v>
+      </c>
+      <c r="N12">
+        <v>2.2203116426204886e-14</v>
+      </c>
+      <c r="O12">
+        <v>2.2203116426204886e-14</v>
+      </c>
+      <c r="P12">
+        <v>0.00046170921586822567</v>
+      </c>
+      <c r="Q12">
+        <v>2.2203116426204886e-14</v>
+      </c>
+      <c r="R12">
+        <v>0.0001256382709370134</v>
+      </c>
+      <c r="S12">
+        <v>2.2203116426204886e-14</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B13">
+        <v>2.8594284479874902e-07</v>
+      </c>
+      <c r="C13">
+        <v>0.97225544121518104</v>
+      </c>
+      <c r="D13">
+        <v>0.00068227252818505162</v>
+      </c>
+      <c r="E13">
+        <v>6.8859278962110653e-05</v>
+      </c>
+      <c r="F13">
+        <v>0.0016371401840806735</v>
+      </c>
+      <c r="G13">
+        <v>0.022871192417825523</v>
+      </c>
+      <c r="H13">
+        <v>2.2201287507325827e-14</v>
+      </c>
+      <c r="I13">
+        <v>2.2201287507325827e-14</v>
+      </c>
+      <c r="J13">
+        <v>2.2201287507325827e-14</v>
+      </c>
+      <c r="K13">
+        <v>2.2201287507325827e-14</v>
+      </c>
+      <c r="L13">
+        <v>0.00055582058676174808</v>
+      </c>
+      <c r="M13">
+        <v>2.2201287507325827e-14</v>
+      </c>
+      <c r="N13">
+        <v>2.2201287507325827e-14</v>
+      </c>
+      <c r="O13">
+        <v>2.2201287507325827e-14</v>
+      </c>
+      <c r="P13">
+        <v>0.0010354859852845903</v>
+      </c>
+      <c r="Q13">
+        <v>2.2201287507325827e-14</v>
+      </c>
+      <c r="R13">
+        <v>0.0008935018606744654</v>
+      </c>
+      <c r="S13">
+        <v>2.2201287507325827e-14</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B14">
+        <v>3.2734995711203613e-07</v>
+      </c>
+      <c r="C14">
+        <v>0.96347580667506216</v>
+      </c>
+      <c r="D14">
+        <v>0.0010825868442444137</v>
+      </c>
+      <c r="E14">
+        <v>4.4896540552041047e-05</v>
+      </c>
+      <c r="F14">
+        <v>0.0011040832652926206</v>
+      </c>
+      <c r="G14">
+        <v>0.020752167933647283</v>
+      </c>
+      <c r="H14">
+        <v>2.2205926584115104e-14</v>
+      </c>
+      <c r="I14">
+        <v>2.2205926584115104e-14</v>
+      </c>
+      <c r="J14">
+        <v>2.2205926584115104e-14</v>
+      </c>
+      <c r="K14">
+        <v>2.2205926584115104e-14</v>
+      </c>
+      <c r="L14">
+        <v>0.0082508276614336601</v>
+      </c>
+      <c r="M14">
+        <v>2.2205926584115104e-14</v>
+      </c>
+      <c r="N14">
+        <v>2.2205926584115104e-14</v>
+      </c>
+      <c r="O14">
+        <v>2.2205926584115104e-14</v>
+      </c>
+      <c r="P14">
+        <v>0.0019826443164290388</v>
+      </c>
+      <c r="Q14">
+        <v>2.2205926584115104e-14</v>
+      </c>
+      <c r="R14">
+        <v>0.0033066594131819552</v>
+      </c>
+      <c r="S14">
+        <v>2.2205926584115104e-14</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B15">
+        <v>1.2518225447286304e-07</v>
+      </c>
+      <c r="C15">
+        <v>0.95478942978860393</v>
+      </c>
+      <c r="D15">
+        <v>0.0008395147835422405</v>
+      </c>
+      <c r="E15">
+        <v>1.1650539319549843e-05</v>
+      </c>
+      <c r="F15">
+        <v>0.00056462800307958451</v>
+      </c>
+      <c r="G15">
+        <v>0.039621457138827837</v>
+      </c>
+      <c r="H15">
+        <v>2.2199662628295024e-14</v>
+      </c>
+      <c r="I15">
+        <v>2.2199662628295024e-14</v>
+      </c>
+      <c r="J15">
+        <v>2.2199662628295024e-14</v>
+      </c>
+      <c r="K15">
+        <v>2.2199662628295024e-14</v>
+      </c>
+      <c r="L15">
+        <v>0.00053437781601587667</v>
+      </c>
+      <c r="M15">
+        <v>2.2199662628295024e-14</v>
+      </c>
+      <c r="N15">
+        <v>2.2199662628295024e-14</v>
+      </c>
+      <c r="O15">
+        <v>2.2199662628295024e-14</v>
+      </c>
+      <c r="P15">
+        <v>0.0013419888410816381</v>
+      </c>
+      <c r="Q15">
+        <v>2.2199662628295024e-14</v>
+      </c>
+      <c r="R15">
+        <v>0.0022968279070750479</v>
+      </c>
+      <c r="S15">
+        <v>2.2199662628295024e-14</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B16">
+        <v>3.1693619386617338e-06</v>
+      </c>
+      <c r="C16">
+        <v>8.3507940780830172e-13</v>
+      </c>
+      <c r="D16">
+        <v>0.86144588420081425</v>
+      </c>
+      <c r="E16">
+        <v>0.031611002167024005</v>
+      </c>
+      <c r="F16">
+        <v>7.9346757651458847e-05</v>
+      </c>
+      <c r="G16">
+        <v>0.0027118422934212633</v>
+      </c>
+      <c r="H16">
+        <v>8.3507940780830243e-13</v>
+      </c>
+      <c r="I16">
+        <v>8.3507940780830232e-13</v>
+      </c>
+      <c r="J16">
+        <v>8.3507940780830232e-13</v>
+      </c>
+      <c r="K16">
+        <v>8.3507940780830192e-13</v>
+      </c>
+      <c r="L16">
+        <v>0.081312654575227489</v>
+      </c>
+      <c r="M16">
+        <v>8.3507940780830192e-13</v>
+      </c>
+      <c r="N16">
+        <v>8.3507940780830192e-13</v>
+      </c>
+      <c r="O16">
+        <v>8.3507940780830142e-13</v>
+      </c>
+      <c r="P16">
+        <v>0.0075233448198944522</v>
+      </c>
+      <c r="Q16">
+        <v>8.3507940780830172e-13</v>
+      </c>
+      <c r="R16">
+        <v>0.015312755815677172</v>
+      </c>
+      <c r="S16">
+        <v>8.3507940780832646e-13</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B17">
+        <v>2.2746547307913093e-05</v>
+      </c>
+      <c r="C17">
+        <v>3.6281565942988029e-10</v>
+      </c>
+      <c r="D17">
+        <v>0.16064590392155662</v>
+      </c>
+      <c r="E17">
+        <v>0.15242140407555682</v>
+      </c>
+      <c r="F17">
+        <v>0.077983697307316371</v>
+      </c>
+      <c r="G17">
+        <v>2.0501287377705999e-05</v>
+      </c>
+      <c r="H17">
+        <v>3.628156594298808e-10</v>
+      </c>
+      <c r="I17">
+        <v>3.628156594298807e-10</v>
+      </c>
+      <c r="J17">
+        <v>3.628156594298807e-10</v>
+      </c>
+      <c r="K17">
+        <v>3.6281565942988029e-10</v>
+      </c>
+      <c r="L17">
+        <v>0.14684411737348074</v>
+      </c>
+      <c r="M17">
+        <v>3.6281565942988008e-10</v>
+      </c>
+      <c r="N17">
+        <v>3.6281565942988142e-10</v>
+      </c>
+      <c r="O17">
+        <v>3.6281565942988023e-10</v>
+      </c>
+      <c r="P17">
+        <v>0.15680747499838227</v>
+      </c>
+      <c r="Q17">
+        <v>3.6281565942988008e-10</v>
+      </c>
+      <c r="R17">
+        <v>0.11691156427523212</v>
+      </c>
+      <c r="S17">
+        <v>0.18834258694844833</v>
+      </c>
+      <c r="T17">
+        <v>18</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B18">
+        <v>0.054178027809825745</v>
+      </c>
+      <c r="C18">
+        <v>0.054178027277094316</v>
+      </c>
+      <c r="D18">
+        <v>0.063116084910795137</v>
+      </c>
+      <c r="E18">
+        <v>0.054969317631728444</v>
+      </c>
+      <c r="F18">
+        <v>0.054178378218063129</v>
+      </c>
+      <c r="G18">
+        <v>0.054178028672454137</v>
+      </c>
+      <c r="H18">
+        <v>0.054178027277094268</v>
+      </c>
+      <c r="I18">
+        <v>0.054178027277094268</v>
+      </c>
+      <c r="J18">
+        <v>0.054178027277094268</v>
+      </c>
+      <c r="K18">
+        <v>0.054178027277094268</v>
+      </c>
+      <c r="L18">
+        <v>0.056236812135745481</v>
+      </c>
+      <c r="M18">
+        <v>0.054178027277094289</v>
+      </c>
+      <c r="N18">
+        <v>0.054178027277094289</v>
+      </c>
+      <c r="O18">
+        <v>0.054178027277094282</v>
+      </c>
+      <c r="P18">
+        <v>0.067152979216417288</v>
+      </c>
+      <c r="Q18">
+        <v>0.054178027277094219</v>
+      </c>
+      <c r="R18">
+        <v>0.054210098634027773</v>
+      </c>
+      <c r="S18">
+        <v>0.054178027277094254</v>
+      </c>
+      <c r="T18">
+        <v>15</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B19">
+        <v>1.0082839488177833e-05</v>
+      </c>
+      <c r="C19">
+        <v>2.220444538895543e-14</v>
+      </c>
+      <c r="D19">
+        <v>0.99998331113978356</v>
+      </c>
+      <c r="E19">
+        <v>1.5990858397122463e-06</v>
+      </c>
+      <c r="F19">
+        <v>2.220444538895543e-14</v>
+      </c>
+      <c r="G19">
+        <v>2.220444538895543e-14</v>
+      </c>
+      <c r="H19">
+        <v>2.220444538895543e-14</v>
+      </c>
+      <c r="I19">
+        <v>2.220444538895543e-14</v>
+      </c>
+      <c r="J19">
+        <v>2.220444538895543e-14</v>
+      </c>
+      <c r="K19">
+        <v>2.220444538895543e-14</v>
+      </c>
+      <c r="L19">
+        <v>1.0026935046331183e-06</v>
+      </c>
+      <c r="M19">
+        <v>2.220444538895543e-14</v>
+      </c>
+      <c r="N19">
+        <v>2.220444538895543e-14</v>
+      </c>
+      <c r="O19">
+        <v>2.220444538895543e-14</v>
+      </c>
+      <c r="P19">
+        <v>4.0042410953750563e-06</v>
+      </c>
+      <c r="Q19">
+        <v>2.220444538895543e-14</v>
+      </c>
+      <c r="R19">
+        <v>2.220444538895543e-14</v>
+      </c>
+      <c r="S19">
+        <v>2.220444538895543e-14</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B20">
+        <v>0.0046679595794867027</v>
+      </c>
+      <c r="C20">
+        <v>2.2201028089758106e-14</v>
+      </c>
+      <c r="D20">
+        <v>0.99509742307741023</v>
+      </c>
+      <c r="E20">
+        <v>0.0002333555829203685</v>
+      </c>
+      <c r="F20">
+        <v>1.4033379893903034e-11</v>
+      </c>
+      <c r="G20">
+        <v>2.8657039467043203e-14</v>
+      </c>
+      <c r="H20">
+        <v>2.2201028089758106e-14</v>
+      </c>
+      <c r="I20">
+        <v>2.2201028089758106e-14</v>
+      </c>
+      <c r="J20">
+        <v>2.2201028089758106e-14</v>
+      </c>
+      <c r="K20">
+        <v>2.2201028089758106e-14</v>
+      </c>
+      <c r="L20">
+        <v>1.6437785854135332e-07</v>
+      </c>
+      <c r="M20">
+        <v>2.2201028089758106e-14</v>
+      </c>
+      <c r="N20">
+        <v>2.2201028089758106e-14</v>
+      </c>
+      <c r="O20">
+        <v>2.2201028089758106e-14</v>
+      </c>
+      <c r="P20">
+        <v>1.0973680179705185e-06</v>
+      </c>
+      <c r="Q20">
+        <v>2.2201028089758106e-14</v>
+      </c>
+      <c r="R20">
+        <v>2.2201028089758106e-14</v>
+      </c>
+      <c r="S20">
+        <v>2.2201028089758106e-14</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B21">
+        <v>1.9074385646017144e-13</v>
+      </c>
+      <c r="C21">
+        <v>1.9074385646017144e-13</v>
+      </c>
+      <c r="D21">
+        <v>0.97398410576237382</v>
+      </c>
+      <c r="E21">
+        <v>0.00011882464346264262</v>
+      </c>
+      <c r="F21">
+        <v>1.9074385646017149e-13</v>
+      </c>
+      <c r="G21">
+        <v>1.9074385646017111e-13</v>
+      </c>
+      <c r="H21">
+        <v>1.9074385646017093e-13</v>
+      </c>
+      <c r="I21">
+        <v>1.9074385646017093e-13</v>
+      </c>
+      <c r="J21">
+        <v>1.9074385646017093e-13</v>
+      </c>
+      <c r="K21">
+        <v>1.9074385646017149e-13</v>
+      </c>
+      <c r="L21">
+        <v>4.0784391755161603e-05</v>
+      </c>
+      <c r="M21">
+        <v>1.9074385646017136e-13</v>
+      </c>
+      <c r="N21">
+        <v>1.9074385646017154e-13</v>
+      </c>
+      <c r="O21">
+        <v>1.9074385646017131e-13</v>
+      </c>
+      <c r="P21">
+        <v>0.025856285199737795</v>
+      </c>
+      <c r="Q21">
+        <v>1.9074385646017146e-13</v>
+      </c>
+      <c r="R21">
+        <v>1.9074385646017166e-13</v>
+      </c>
+      <c r="S21">
+        <v>1.9074385646017141e-13</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B22">
+        <v>2.3284628842429869e-05</v>
+      </c>
+      <c r="C22">
+        <v>1.4054931744534339e-12</v>
+      </c>
+      <c r="D22">
+        <v>0.95434353683551632</v>
+      </c>
+      <c r="E22">
+        <v>0.0012957908919941853</v>
+      </c>
+      <c r="F22">
+        <v>3.2490858596159673e-08</v>
+      </c>
+      <c r="G22">
+        <v>0.012239828772006859</v>
+      </c>
+      <c r="H22">
+        <v>1.4054931744534361e-12</v>
+      </c>
+      <c r="I22">
+        <v>1.4054931744534359e-12</v>
+      </c>
+      <c r="J22">
+        <v>1.4054931744534359e-12</v>
+      </c>
+      <c r="K22">
+        <v>1.4054931744534375e-12</v>
+      </c>
+      <c r="L22">
+        <v>0.0030097206708536088</v>
+      </c>
+      <c r="M22">
+        <v>1.4054931744534371e-12</v>
+      </c>
+      <c r="N22">
+        <v>1.4054931744534385e-12</v>
+      </c>
+      <c r="O22">
+        <v>1.4054931744534373e-12</v>
+      </c>
+      <c r="P22">
+        <v>0.010952998189087453</v>
+      </c>
+      <c r="Q22">
+        <v>1.4054931744534381e-12</v>
+      </c>
+      <c r="R22">
+        <v>0.01813480750678537</v>
+      </c>
+      <c r="S22">
+        <v>1.4054931744534407e-12</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B23">
+        <v>3.0809590732822009e-05</v>
+      </c>
+      <c r="C23">
+        <v>2.451171697587916e-12</v>
+      </c>
+      <c r="D23">
+        <v>0.93938093632052033</v>
+      </c>
+      <c r="E23">
+        <v>0.0017951355474973951</v>
+      </c>
+      <c r="F23">
+        <v>1.7572535156153914e-08</v>
+      </c>
+      <c r="G23">
+        <v>0.016870655329147985</v>
+      </c>
+      <c r="H23">
+        <v>2.4511716975879196e-12</v>
+      </c>
+      <c r="I23">
+        <v>2.4511716975879196e-12</v>
+      </c>
+      <c r="J23">
+        <v>2.4511716975879196e-12</v>
+      </c>
+      <c r="K23">
+        <v>2.4511716975879209e-12</v>
+      </c>
+      <c r="L23">
+        <v>0.010371369957873558</v>
+      </c>
+      <c r="M23">
+        <v>2.4511716975879273e-12</v>
+      </c>
+      <c r="N23">
+        <v>2.4511716975879305e-12</v>
+      </c>
+      <c r="O23">
+        <v>2.4511716975879281e-12</v>
+      </c>
+      <c r="P23">
+        <v>0.019554136670045612</v>
+      </c>
+      <c r="Q23">
+        <v>2.4511716975879281e-12</v>
+      </c>
+      <c r="R23">
+        <v>0.011996938987135032</v>
+      </c>
+      <c r="S23">
+        <v>2.4511716975879204e-12</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B24">
+        <v>9.2044381134359009e-06</v>
+      </c>
+      <c r="C24">
+        <v>5.5936879058568961e-13</v>
+      </c>
+      <c r="D24">
+        <v>0.92615098127045836</v>
+      </c>
+      <c r="E24">
+        <v>0.00055021705758670492</v>
+      </c>
+      <c r="F24">
+        <v>6.0448939035380531e-08</v>
+      </c>
+      <c r="G24">
+        <v>0.011177551182508828</v>
+      </c>
+      <c r="H24">
+        <v>5.593687905856888e-13</v>
+      </c>
+      <c r="I24">
+        <v>5.593687905856881e-13</v>
+      </c>
+      <c r="J24">
+        <v>5.593687905856881e-13</v>
+      </c>
+      <c r="K24">
+        <v>5.5936879058568911e-13</v>
+      </c>
+      <c r="L24">
+        <v>0.00022716636502358921</v>
+      </c>
+      <c r="M24">
+        <v>5.5936879058568941e-13</v>
+      </c>
+      <c r="N24">
+        <v>5.5936879058568971e-13</v>
+      </c>
+      <c r="O24">
+        <v>5.5936879058568961e-13</v>
+      </c>
+      <c r="P24">
+        <v>0.009069533742865666</v>
+      </c>
+      <c r="Q24">
+        <v>5.5936879058568941e-13</v>
+      </c>
+      <c r="R24">
+        <v>0.052815285488911123</v>
+      </c>
+      <c r="S24">
+        <v>5.593687905856887e-13</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B25">
+        <v>2.4141328688728976e-05</v>
+      </c>
+      <c r="C25">
+        <v>8.6239152919848727e-13</v>
+      </c>
+      <c r="D25">
+        <v>0.93058036630953123</v>
+      </c>
+      <c r="E25">
+        <v>0.00061120085836233857</v>
+      </c>
+      <c r="F25">
+        <v>4.6816843312358058e-08</v>
+      </c>
+      <c r="G25">
+        <v>0.034995919237079384</v>
+      </c>
+      <c r="H25">
+        <v>8.6239152919848697e-13</v>
+      </c>
+      <c r="I25">
+        <v>8.6239152919848464e-13</v>
+      </c>
+      <c r="J25">
+        <v>8.6239152919848464e-13</v>
+      </c>
+      <c r="K25">
+        <v>8.6239152919848707e-13</v>
+      </c>
+      <c r="L25">
+        <v>0.0048529736347312112</v>
+      </c>
+      <c r="M25">
+        <v>8.6239152919848727e-13</v>
+      </c>
+      <c r="N25">
+        <v>8.6239152919848747e-13</v>
+      </c>
+      <c r="O25">
+        <v>8.6239152919848717e-13</v>
+      </c>
+      <c r="P25">
+        <v>0.011577505172723232</v>
+      </c>
+      <c r="Q25">
+        <v>8.6239152919848707e-13</v>
+      </c>
+      <c r="R25">
+        <v>0.017357846633416593</v>
+      </c>
+      <c r="S25">
+        <v>8.6239152919848868e-13</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B26">
+        <v>1.5578018777668963e-05</v>
+      </c>
+      <c r="C26">
+        <v>4.0807098062082013e-14</v>
+      </c>
+      <c r="D26">
+        <v>0.82733249625470706</v>
+      </c>
+      <c r="E26">
+        <v>0.092865088536697157</v>
+      </c>
+      <c r="F26">
+        <v>0.025864979555728626</v>
+      </c>
+      <c r="G26">
+        <v>0.00018427583486067906</v>
+      </c>
+      <c r="H26">
+        <v>4.0807098062081564e-14</v>
+      </c>
+      <c r="I26">
+        <v>4.0807098062081552e-14</v>
+      </c>
+      <c r="J26">
+        <v>4.0807098062081552e-14</v>
+      </c>
+      <c r="K26">
+        <v>4.0807098062081558e-14</v>
+      </c>
+      <c r="L26">
+        <v>0.001381901363763932</v>
+      </c>
+      <c r="M26">
+        <v>4.0807098062081552e-14</v>
+      </c>
+      <c r="N26">
+        <v>4.0807098062081564e-14</v>
+      </c>
+      <c r="O26">
+        <v>4.0807098062081564e-14</v>
+      </c>
+      <c r="P26">
+        <v>0.00033003712193322034</v>
+      </c>
+      <c r="Q26">
+        <v>4.0807098062081571e-14</v>
+      </c>
+      <c r="R26">
+        <v>0.052025643313123433</v>
+      </c>
+      <c r="S26">
+        <v>4.0807098062082e-14</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B27">
+        <v>0.00017460350224907968</v>
+      </c>
+      <c r="C27">
+        <v>2.2201166509655671e-14</v>
+      </c>
+      <c r="D27">
+        <v>0.0032422105739653051</v>
+      </c>
+      <c r="E27">
+        <v>0.97826861125243281</v>
+      </c>
+      <c r="F27">
+        <v>0.009560125840665264</v>
+      </c>
+      <c r="G27">
+        <v>0.0058225919855855752</v>
+      </c>
+      <c r="H27">
+        <v>2.2201166509655671e-14</v>
+      </c>
+      <c r="I27">
+        <v>2.2201166509655671e-14</v>
+      </c>
+      <c r="J27">
+        <v>2.2201166509655671e-14</v>
+      </c>
+      <c r="K27">
+        <v>2.2201166509655671e-14</v>
+      </c>
+      <c r="L27">
+        <v>0.0017787779246864286</v>
+      </c>
+      <c r="M27">
+        <v>2.2201166509655671e-14</v>
+      </c>
+      <c r="N27">
+        <v>2.2201166509655671e-14</v>
+      </c>
+      <c r="O27">
+        <v>2.2201166509655671e-14</v>
+      </c>
+      <c r="P27">
+        <v>0.00075560310629370667</v>
+      </c>
+      <c r="Q27">
+        <v>2.2201166509655671e-14</v>
+      </c>
+      <c r="R27">
+        <v>0.00039747581389992396</v>
+      </c>
+      <c r="S27">
+        <v>2.2201166509655671e-14</v>
+      </c>
+      <c r="T27">
+        <v>4</v>
+      </c>
+      <c r="U27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B28">
+        <v>0.00053619658922241908</v>
+      </c>
+      <c r="C28">
+        <v>2.220051914872389e-14</v>
+      </c>
+      <c r="D28">
+        <v>0.0010120437152309849</v>
+      </c>
+      <c r="E28">
+        <v>0.88774727919897367</v>
+      </c>
+      <c r="F28">
+        <v>0.0008624140696332017</v>
+      </c>
+      <c r="G28">
+        <v>0.10588979037301188</v>
+      </c>
+      <c r="H28">
+        <v>2.220051914872389e-14</v>
+      </c>
+      <c r="I28">
+        <v>2.220051914872389e-14</v>
+      </c>
+      <c r="J28">
+        <v>2.220051914872389e-14</v>
+      </c>
+      <c r="K28">
+        <v>2.220051914872389e-14</v>
+      </c>
+      <c r="L28">
+        <v>0.0025075038874794002</v>
+      </c>
+      <c r="M28">
+        <v>2.220051914872389e-14</v>
+      </c>
+      <c r="N28">
+        <v>2.220051914872389e-14</v>
+      </c>
+      <c r="O28">
+        <v>2.220051914872389e-14</v>
+      </c>
+      <c r="P28">
+        <v>0.0012199260243236215</v>
+      </c>
+      <c r="Q28">
+        <v>2.220051914872389e-14</v>
+      </c>
+      <c r="R28">
+        <v>0.0002248461419029534</v>
+      </c>
+      <c r="S28">
+        <v>2.220051914872389e-14</v>
+      </c>
+      <c r="T28">
+        <v>4</v>
+      </c>
+      <c r="U28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B29">
+        <v>8.5113169877231881e-07</v>
+      </c>
+      <c r="C29">
+        <v>1.6461271481114719e-13</v>
+      </c>
+      <c r="D29">
+        <v>0.02206877584807708</v>
+      </c>
+      <c r="E29">
+        <v>0.97782189468493041</v>
+      </c>
+      <c r="F29">
+        <v>6.8729063380223818e-11</v>
+      </c>
+      <c r="G29">
+        <v>1.6461271481121883e-13</v>
+      </c>
+      <c r="H29">
+        <v>1.6461271481114692e-13</v>
+      </c>
+      <c r="I29">
+        <v>1.6461271481114692e-13</v>
+      </c>
+      <c r="J29">
+        <v>1.6461271481114692e-13</v>
+      </c>
+      <c r="K29">
+        <v>1.6461271481114742e-13</v>
+      </c>
+      <c r="L29">
+        <v>1.3844255167454562e-05</v>
+      </c>
+      <c r="M29">
+        <v>1.6461271481114782e-13</v>
+      </c>
+      <c r="N29">
+        <v>1.6461271481114805e-13</v>
+      </c>
+      <c r="O29">
+        <v>1.6461271481114775e-13</v>
+      </c>
+      <c r="P29">
+        <v>9.4634009422418468e-05</v>
+      </c>
+      <c r="Q29">
+        <v>1.6461271481114782e-13</v>
+      </c>
+      <c r="R29">
+        <v>1.6461271481117221e-13</v>
+      </c>
+      <c r="S29">
+        <v>1.6461271481114727e-13</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B30">
+        <v>0.0001936835919551708</v>
+      </c>
+      <c r="C30">
+        <v>4.2258277634822266e-14</v>
+      </c>
+      <c r="D30">
+        <v>0.043005571388384949</v>
+      </c>
+      <c r="E30">
+        <v>0.80631885852043694</v>
+      </c>
+      <c r="F30">
+        <v>0.01216413570061075</v>
+      </c>
+      <c r="G30">
+        <v>0.12897463984897331</v>
+      </c>
+      <c r="H30">
+        <v>4.2258277634822241e-14</v>
+      </c>
+      <c r="I30">
+        <v>4.2258277634822241e-14</v>
+      </c>
+      <c r="J30">
+        <v>4.2258277634822241e-14</v>
+      </c>
+      <c r="K30">
+        <v>4.2258277634822241e-14</v>
+      </c>
+      <c r="L30">
+        <v>0.0023237224384320345</v>
+      </c>
+      <c r="M30">
+        <v>4.2258277634822241e-14</v>
+      </c>
+      <c r="N30">
+        <v>4.2258277634822266e-14</v>
+      </c>
+      <c r="O30">
+        <v>4.2258277634822266e-14</v>
+      </c>
+      <c r="P30">
+        <v>0.0014292877313395176</v>
+      </c>
+      <c r="Q30">
+        <v>4.2258277634822279e-14</v>
+      </c>
+      <c r="R30">
+        <v>0.0055901007794446145</v>
+      </c>
+      <c r="S30">
+        <v>4.2258277634822279e-14</v>
+      </c>
+      <c r="T30">
+        <v>4</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B31">
+        <v>3.3965597414189855e-10</v>
+      </c>
+      <c r="C31">
+        <v>2.2201162769279246e-14</v>
+      </c>
+      <c r="D31">
+        <v>0.00014830232530770032</v>
+      </c>
+      <c r="E31">
+        <v>0.89184088805874961</v>
+      </c>
+      <c r="F31">
+        <v>0.10764361122974679</v>
+      </c>
+      <c r="G31">
+        <v>7.6679392606005276e-08</v>
+      </c>
+      <c r="H31">
+        <v>2.2201162769279246e-14</v>
+      </c>
+      <c r="I31">
+        <v>2.2201162769279246e-14</v>
+      </c>
+      <c r="J31">
+        <v>2.2201162769279246e-14</v>
+      </c>
+      <c r="K31">
+        <v>2.2201162769279246e-14</v>
+      </c>
+      <c r="L31">
+        <v>0.00020474724961769495</v>
+      </c>
+      <c r="M31">
+        <v>2.2201162769279246e-14</v>
+      </c>
+      <c r="N31">
+        <v>2.2201162769279246e-14</v>
+      </c>
+      <c r="O31">
+        <v>2.2201162769279246e-14</v>
+      </c>
+      <c r="P31">
+        <v>9.1818590485698214e-05</v>
+      </c>
+      <c r="Q31">
+        <v>2.2201162769279246e-14</v>
+      </c>
+      <c r="R31">
+        <v>7.0555526821974179e-05</v>
+      </c>
+      <c r="S31">
+        <v>2.2201162769279246e-14</v>
+      </c>
+      <c r="T31">
+        <v>4</v>
+      </c>
+      <c r="U31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B32">
+        <v>0.0041826165623499618</v>
+      </c>
+      <c r="C32">
+        <v>2.2211790922032232e-14</v>
+      </c>
+      <c r="D32">
+        <v>0.00056575385293201679</v>
+      </c>
+      <c r="E32">
+        <v>0.97439346492881795</v>
+      </c>
+      <c r="F32">
+        <v>0.010565914326255107</v>
+      </c>
+      <c r="G32">
+        <v>2.8829647126565328e-05</v>
+      </c>
+      <c r="H32">
+        <v>2.2211790922032232e-14</v>
+      </c>
+      <c r="I32">
+        <v>2.2211790922032229e-14</v>
+      </c>
+      <c r="J32">
+        <v>2.2211790922032229e-14</v>
+      </c>
+      <c r="K32">
+        <v>2.2211790922032229e-14</v>
+      </c>
+      <c r="L32">
+        <v>0.00058297073565507628</v>
+      </c>
+      <c r="M32">
+        <v>2.2211790922032229e-14</v>
+      </c>
+      <c r="N32">
+        <v>2.2211790922032229e-14</v>
+      </c>
+      <c r="O32">
+        <v>2.2211790922032229e-14</v>
+      </c>
+      <c r="P32">
+        <v>0.0059722325965410042</v>
+      </c>
+      <c r="Q32">
+        <v>2.2211790922032229e-14</v>
+      </c>
+      <c r="R32">
+        <v>0.0037082173501003131</v>
+      </c>
+      <c r="S32">
+        <v>2.2211790922032232e-14</v>
+      </c>
+      <c r="T32">
+        <v>4</v>
+      </c>
+      <c r="U32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B33">
+        <v>0.083073793500277979</v>
+      </c>
+      <c r="C33">
+        <v>2.9916703238481835e-14</v>
+      </c>
+      <c r="D33">
+        <v>0.0029555336634579021</v>
+      </c>
+      <c r="E33">
+        <v>0.86256061330671963</v>
+      </c>
+      <c r="F33">
+        <v>0.0030091349219072651</v>
+      </c>
+      <c r="G33">
+        <v>0.028976482343407776</v>
+      </c>
+      <c r="H33">
+        <v>2.9916703238481456e-14</v>
+      </c>
+      <c r="I33">
+        <v>2.9916703238481456e-14</v>
+      </c>
+      <c r="J33">
+        <v>2.9916703238481456e-14</v>
+      </c>
+      <c r="K33">
+        <v>2.9916703238481462e-14</v>
+      </c>
+      <c r="L33">
+        <v>0.0016940667751764093</v>
+      </c>
+      <c r="M33">
+        <v>2.9916703238481462e-14</v>
+      </c>
+      <c r="N33">
+        <v>2.9916703238481475e-14</v>
+      </c>
+      <c r="O33">
+        <v>2.9916703238481475e-14</v>
+      </c>
+      <c r="P33">
+        <v>0.0098668332585208404</v>
+      </c>
+      <c r="Q33">
+        <v>2.9916703238481475e-14</v>
+      </c>
+      <c r="R33">
+        <v>0.0078635422302326119</v>
+      </c>
+      <c r="S33">
+        <v>2.9916703238481469e-14</v>
+      </c>
+      <c r="T33">
+        <v>4</v>
+      </c>
+      <c r="U33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B34">
+        <v>4.0420118262354593e-07</v>
+      </c>
+      <c r="C34">
+        <v>8.5764670191181195e-14</v>
+      </c>
+      <c r="D34">
+        <v>0.022687251781021028</v>
+      </c>
+      <c r="E34">
+        <v>0.0044393455945501833</v>
+      </c>
+      <c r="F34">
+        <v>0.96620323507074413</v>
+      </c>
+      <c r="G34">
+        <v>0.0014274534816361456</v>
+      </c>
+      <c r="H34">
+        <v>8.5764670191180943e-14</v>
+      </c>
+      <c r="I34">
+        <v>8.5764670191180905e-14</v>
+      </c>
+      <c r="J34">
+        <v>8.5764670191180905e-14</v>
+      </c>
+      <c r="K34">
+        <v>8.5764670191181044e-14</v>
+      </c>
+      <c r="L34">
+        <v>0.00064419880235382207</v>
+      </c>
+      <c r="M34">
+        <v>8.5764670191181018e-14</v>
+      </c>
+      <c r="N34">
+        <v>8.5764670191181119e-14</v>
+      </c>
+      <c r="O34">
+        <v>8.5764670191181006e-14</v>
+      </c>
+      <c r="P34">
+        <v>0.0016914628489930095</v>
+      </c>
+      <c r="Q34">
+        <v>8.5764670191181081e-14</v>
+      </c>
+      <c r="R34">
+        <v>0.0029066482186611395</v>
+      </c>
+      <c r="S34">
+        <v>8.5764670191180981e-14</v>
+      </c>
+      <c r="T34">
+        <v>5</v>
+      </c>
+      <c r="U34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B35">
+        <v>4.5561681326567123e-07</v>
+      </c>
+      <c r="C35">
+        <v>2.2205784612848458e-14</v>
+      </c>
+      <c r="D35">
+        <v>0.00026356124985402825</v>
+      </c>
+      <c r="E35">
+        <v>0.00055734410003972627</v>
+      </c>
+      <c r="F35">
+        <v>0.81886652731670961</v>
+      </c>
+      <c r="G35">
+        <v>0.012198738284513195</v>
+      </c>
+      <c r="H35">
+        <v>2.2205784612848458e-14</v>
+      </c>
+      <c r="I35">
+        <v>2.2205784612848458e-14</v>
+      </c>
+      <c r="J35">
+        <v>2.2205784612848458e-14</v>
+      </c>
+      <c r="K35">
+        <v>2.2205784612848458e-14</v>
+      </c>
+      <c r="L35">
+        <v>0.16588605866901648</v>
+      </c>
+      <c r="M35">
+        <v>2.2205784612848458e-14</v>
+      </c>
+      <c r="N35">
+        <v>2.2205784612848458e-14</v>
+      </c>
+      <c r="O35">
+        <v>2.2205784612848458e-14</v>
+      </c>
+      <c r="P35">
+        <v>0.00064496245284737343</v>
+      </c>
+      <c r="Q35">
+        <v>2.2205784612848458e-14</v>
+      </c>
+      <c r="R35">
+        <v>0.0015823523099843723</v>
+      </c>
+      <c r="S35">
+        <v>2.2205784612848458e-14</v>
+      </c>
+      <c r="T35">
+        <v>5</v>
+      </c>
+      <c r="U35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B36">
+        <v>3.3061902595816907e-06</v>
+      </c>
+      <c r="C36">
+        <v>2.2202881525438311e-14</v>
+      </c>
+      <c r="D36">
+        <v>0.00073170808589477769</v>
+      </c>
+      <c r="E36">
+        <v>0.036132286019800605</v>
+      </c>
+      <c r="F36">
+        <v>0.0013282464672794041</v>
+      </c>
+      <c r="G36">
+        <v>0.9543478181638525</v>
+      </c>
+      <c r="H36">
+        <v>2.2202881525438311e-14</v>
+      </c>
+      <c r="I36">
+        <v>2.2202881525438311e-14</v>
+      </c>
+      <c r="J36">
+        <v>2.2202881525438311e-14</v>
+      </c>
+      <c r="K36">
+        <v>2.2202881525438311e-14</v>
+      </c>
+      <c r="L36">
+        <v>0.0061755833738551249</v>
+      </c>
+      <c r="M36">
+        <v>2.2202881525438311e-14</v>
+      </c>
+      <c r="N36">
+        <v>2.2202881525438311e-14</v>
+      </c>
+      <c r="O36">
+        <v>2.2202881525438311e-14</v>
+      </c>
+      <c r="P36">
+        <v>0.00080542383750676879</v>
+      </c>
+      <c r="Q36">
+        <v>2.2202881525438311e-14</v>
+      </c>
+      <c r="R36">
+        <v>0.00047562786132932812</v>
+      </c>
+      <c r="S36">
+        <v>2.2202881525438311e-14</v>
+      </c>
+      <c r="T36">
+        <v>6</v>
+      </c>
+      <c r="U36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B37">
+        <v>0.031501712062875407</v>
+      </c>
+      <c r="C37">
+        <v>2.3845926811365699e-13</v>
+      </c>
+      <c r="D37">
+        <v>0.040631722280141593</v>
+      </c>
+      <c r="E37">
+        <v>0.025077440425665981</v>
+      </c>
+      <c r="F37">
+        <v>0.16318202331669115</v>
+      </c>
+      <c r="G37">
+        <v>0.29872587127311451</v>
+      </c>
+      <c r="H37">
+        <v>2.3845926811365674e-13</v>
+      </c>
+      <c r="I37">
+        <v>2.3845926811365694e-13</v>
+      </c>
+      <c r="J37">
+        <v>0.17834382935030499</v>
+      </c>
+      <c r="K37">
+        <v>2.3845926811365694e-13</v>
+      </c>
+      <c r="L37">
+        <v>0.24820131907042242</v>
+      </c>
+      <c r="M37">
+        <v>2.3845926811365699e-13</v>
+      </c>
+      <c r="N37">
+        <v>2.3845926811365704e-13</v>
+      </c>
+      <c r="O37">
+        <v>2.3845926811365704e-13</v>
+      </c>
+      <c r="P37">
+        <v>0.014105007416916631</v>
+      </c>
+      <c r="Q37">
+        <v>2.3845926811365704e-13</v>
+      </c>
+      <c r="R37">
+        <v>0.00023107480172105833</v>
+      </c>
+      <c r="S37">
+        <v>2.3845926811365936e-13</v>
+      </c>
+      <c r="T37">
+        <v>6</v>
+      </c>
+      <c r="U37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B38">
+        <v>0.031674457209381709</v>
+      </c>
+      <c r="C38">
+        <v>1.3598039430414385e-13</v>
+      </c>
+      <c r="D38">
+        <v>0.0062702629111136034</v>
+      </c>
+      <c r="E38">
+        <v>0.0098837306991979915</v>
+      </c>
+      <c r="F38">
+        <v>0.041328319812928498</v>
+      </c>
+      <c r="G38">
+        <v>0.87270806210867768</v>
+      </c>
+      <c r="H38">
+        <v>1.3598039430414393e-13</v>
+      </c>
+      <c r="I38">
+        <v>1.3598039430414388e-13</v>
+      </c>
+      <c r="J38">
+        <v>1.3598039430414388e-13</v>
+      </c>
+      <c r="K38">
+        <v>1.3598039430414396e-13</v>
+      </c>
+      <c r="L38">
+        <v>0.027903564850241654</v>
+      </c>
+      <c r="M38">
+        <v>1.3598039430414398e-13</v>
+      </c>
+      <c r="N38">
+        <v>1.3598039430414406e-13</v>
+      </c>
+      <c r="O38">
+        <v>1.3598039430414403e-13</v>
+      </c>
+      <c r="P38">
+        <v>0.0092769740058128332</v>
+      </c>
+      <c r="Q38">
+        <v>1.3598039430414401e-13</v>
+      </c>
+      <c r="R38">
+        <v>0.00095462840128643887</v>
+      </c>
+      <c r="S38">
+        <v>1.3598039430414423e-13</v>
+      </c>
+      <c r="T38">
+        <v>6</v>
+      </c>
+      <c r="U38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B39">
+        <v>0.042258077004850597</v>
+      </c>
+      <c r="C39">
+        <v>4.3001786179263622e-13</v>
+      </c>
+      <c r="D39">
+        <v>0.064299010338952106</v>
+      </c>
+      <c r="E39">
+        <v>0.19370430280601506</v>
+      </c>
+      <c r="F39">
+        <v>0.040654733614861403</v>
+      </c>
+      <c r="G39">
+        <v>0.52809500364892725</v>
+      </c>
+      <c r="H39">
+        <v>4.3001786179263612e-13</v>
+      </c>
+      <c r="I39">
+        <v>4.3001786179263612e-13</v>
+      </c>
+      <c r="J39">
+        <v>4.3001786179263612e-13</v>
+      </c>
+      <c r="K39">
+        <v>4.3001786179263597e-13</v>
+      </c>
+      <c r="L39">
+        <v>0.093372531798209021</v>
+      </c>
+      <c r="M39">
+        <v>4.3001786179263582e-13</v>
+      </c>
+      <c r="N39">
+        <v>4.3001786179263587e-13</v>
+      </c>
+      <c r="O39">
+        <v>4.3001786179263572e-13</v>
+      </c>
+      <c r="P39">
+        <v>0.014381907191632057</v>
+      </c>
+      <c r="Q39">
+        <v>4.3001786179263597e-13</v>
+      </c>
+      <c r="R39">
+        <v>0.023234433592252645</v>
+      </c>
+      <c r="S39">
+        <v>4.3001786179264092e-13</v>
+      </c>
+      <c r="T39">
+        <v>6</v>
+      </c>
+      <c r="U39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B40">
+        <v>0.31651752802302041</v>
+      </c>
+      <c r="C40">
+        <v>4.7827050861975775e-14</v>
+      </c>
+      <c r="D40">
+        <v>0.0014691298444939745</v>
+      </c>
+      <c r="E40">
+        <v>0.077656811082455104</v>
+      </c>
+      <c r="F40">
+        <v>0.03391064592633207</v>
+      </c>
+      <c r="G40">
+        <v>0.56759546616763845</v>
+      </c>
+      <c r="H40">
+        <v>4.7827050861975763e-14</v>
+      </c>
+      <c r="I40">
+        <v>4.7827050861975763e-14</v>
+      </c>
+      <c r="J40">
+        <v>4.7827050861975763e-14</v>
+      </c>
+      <c r="K40">
+        <v>4.7827050861975782e-14</v>
+      </c>
+      <c r="L40">
+        <v>0.00039631660983730443</v>
+      </c>
+      <c r="M40">
+        <v>4.7827050861975782e-14</v>
+      </c>
+      <c r="N40">
+        <v>4.7827050861975782e-14</v>
+      </c>
+      <c r="O40">
+        <v>4.7827050861975782e-14</v>
+      </c>
+      <c r="P40">
+        <v>0.0024536857596025646</v>
+      </c>
+      <c r="Q40">
+        <v>4.7827050861975782e-14</v>
+      </c>
+      <c r="R40">
+        <v>4.1658614291684602e-07</v>
+      </c>
+      <c r="S40">
+        <v>4.7827050861975782e-14</v>
+      </c>
+      <c r="T40">
+        <v>6</v>
+      </c>
+      <c r="U40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B41">
+        <v>0.00024859464053412215</v>
+      </c>
+      <c r="C41">
+        <v>2.5017908310221749e-14</v>
+      </c>
+      <c r="D41">
+        <v>0.013379421805726118</v>
+      </c>
+      <c r="E41">
+        <v>0.019271855864412619</v>
+      </c>
+      <c r="F41">
+        <v>0.0038244147315773364</v>
+      </c>
+      <c r="G41">
+        <v>0.89815273778387938</v>
+      </c>
+      <c r="H41">
+        <v>2.5017908310221745e-14</v>
+      </c>
+      <c r="I41">
+        <v>2.5017908310221736e-14</v>
+      </c>
+      <c r="J41">
+        <v>2.5017908310221736e-14</v>
+      </c>
+      <c r="K41">
+        <v>2.5017908310221739e-14</v>
+      </c>
+      <c r="L41">
+        <v>0.042359528158158806</v>
+      </c>
+      <c r="M41">
+        <v>2.5017908310221749e-14</v>
+      </c>
+      <c r="N41">
+        <v>2.5017908310221752e-14</v>
+      </c>
+      <c r="O41">
+        <v>2.5017908310221742e-14</v>
+      </c>
+      <c r="P41">
+        <v>0.0010795350815375362</v>
+      </c>
+      <c r="Q41">
+        <v>2.5017908310221752e-14</v>
+      </c>
+      <c r="R41">
+        <v>0.021683911933924233</v>
+      </c>
+      <c r="S41">
+        <v>2.5017908310221749e-14</v>
+      </c>
+      <c r="T41">
+        <v>6</v>
+      </c>
+      <c r="U41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B42">
+        <v>7.7998666825598836e-07</v>
+      </c>
+      <c r="C42">
+        <v>2.2203942291814769e-14</v>
+      </c>
+      <c r="D42">
+        <v>0.0019730750386253875</v>
+      </c>
+      <c r="E42">
+        <v>4.2040583310642156e-05</v>
+      </c>
+      <c r="F42">
+        <v>0.00015764789292671479</v>
+      </c>
+      <c r="G42">
+        <v>0.0015330037318265145</v>
+      </c>
+      <c r="H42">
+        <v>0.98550159852239538</v>
+      </c>
+      <c r="I42">
+        <v>2.2203942291814769e-14</v>
+      </c>
+      <c r="J42">
+        <v>2.2203942291814769e-14</v>
+      </c>
+      <c r="K42">
+        <v>2.2203942291814769e-14</v>
+      </c>
+      <c r="L42">
+        <v>0.00046120869430747594</v>
+      </c>
+      <c r="M42">
+        <v>2.2203942291814769e-14</v>
+      </c>
+      <c r="N42">
+        <v>2.2203942291814769e-14</v>
+      </c>
+      <c r="O42">
+        <v>2.2203942291814769e-14</v>
+      </c>
+      <c r="P42">
+        <v>0.0061443021318433929</v>
+      </c>
+      <c r="Q42">
+        <v>2.2203942291814769e-14</v>
+      </c>
+      <c r="R42">
+        <v>0.00418634341789646</v>
+      </c>
+      <c r="S42">
+        <v>2.2203942291814769e-14</v>
+      </c>
+      <c r="T42">
+        <v>7</v>
+      </c>
+      <c r="U42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B43">
+        <v>5.1449145503780392e-08</v>
+      </c>
+      <c r="C43">
+        <v>2.2204867451048057e-14</v>
+      </c>
+      <c r="D43">
+        <v>0.00056059393807350155</v>
+      </c>
+      <c r="E43">
+        <v>0.00013614521600207666</v>
+      </c>
+      <c r="F43">
+        <v>0.0063004935684753535</v>
+      </c>
+      <c r="G43">
+        <v>0.0043464976233769589</v>
+      </c>
+      <c r="H43">
+        <v>0.98051378338075146</v>
+      </c>
+      <c r="I43">
+        <v>2.2204867451048057e-14</v>
+      </c>
+      <c r="J43">
+        <v>2.2204867451048057e-14</v>
+      </c>
+      <c r="K43">
+        <v>2.2204867451048057e-14</v>
+      </c>
+      <c r="L43">
+        <v>0.0012978754473972308</v>
+      </c>
+      <c r="M43">
+        <v>2.2204867451048057e-14</v>
+      </c>
+      <c r="N43">
+        <v>2.2204867451048057e-14</v>
+      </c>
+      <c r="O43">
+        <v>2.2204867451048057e-14</v>
+      </c>
+      <c r="P43">
+        <v>0.0049307631477496505</v>
+      </c>
+      <c r="Q43">
+        <v>2.2204867451048057e-14</v>
+      </c>
+      <c r="R43">
+        <v>0.0019137962288283384</v>
+      </c>
+      <c r="S43">
+        <v>2.2204867451048057e-14</v>
+      </c>
+      <c r="T43">
+        <v>7</v>
+      </c>
+      <c r="U43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B44">
+        <v>3.331166716887731e-07</v>
+      </c>
+      <c r="C44">
+        <v>2.2204323554907521e-14</v>
+      </c>
+      <c r="D44">
+        <v>0.0011637784119529451</v>
+      </c>
+      <c r="E44">
+        <v>6.5446384438843427e-05</v>
+      </c>
+      <c r="F44">
+        <v>0.0017375906759481449</v>
+      </c>
+      <c r="G44">
+        <v>0.0067425929990542555</v>
+      </c>
+      <c r="H44">
+        <v>0.98228875491297962</v>
+      </c>
+      <c r="I44">
+        <v>2.2204323554907521e-14</v>
+      </c>
+      <c r="J44">
+        <v>2.2204323554907521e-14</v>
+      </c>
+      <c r="K44">
+        <v>2.2204323554907521e-14</v>
+      </c>
+      <c r="L44">
+        <v>0.00066312996437734929</v>
+      </c>
+      <c r="M44">
+        <v>2.2204323554907521e-14</v>
+      </c>
+      <c r="N44">
+        <v>2.2204323554907521e-14</v>
+      </c>
+      <c r="O44">
+        <v>2.2204323554907521e-14</v>
+      </c>
+      <c r="P44">
+        <v>0.0061224298749333128</v>
+      </c>
+      <c r="Q44">
+        <v>2.2204323554907521e-14</v>
+      </c>
+      <c r="R44">
+        <v>0.0012159436594440141</v>
+      </c>
+      <c r="S44">
+        <v>2.2204323554907521e-14</v>
+      </c>
+      <c r="T44">
+        <v>7</v>
+      </c>
+      <c r="U44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B45">
+        <v>0.00066913948710610818</v>
+      </c>
+      <c r="C45">
+        <v>2.2202940503523744e-14</v>
+      </c>
+      <c r="D45">
+        <v>0.00098257241926299446</v>
+      </c>
+      <c r="E45">
+        <v>0.011074189368941403</v>
+      </c>
+      <c r="F45">
+        <v>7.0424744438245189e-10</v>
+      </c>
+      <c r="G45">
+        <v>1.3307570527815679e-11</v>
+      </c>
+      <c r="H45">
+        <v>2.2202940503523744e-14</v>
+      </c>
+      <c r="I45">
+        <v>0.98393889402277079</v>
+      </c>
+      <c r="J45">
+        <v>2.2202940503523744e-14</v>
+      </c>
+      <c r="K45">
+        <v>2.2202940503523744e-14</v>
+      </c>
+      <c r="L45">
+        <v>0.0033336864298564492</v>
+      </c>
+      <c r="M45">
+        <v>2.2202940503523744e-14</v>
+      </c>
+      <c r="N45">
+        <v>2.2202940503523744e-14</v>
+      </c>
+      <c r="O45">
+        <v>2.2202940503523744e-14</v>
+      </c>
+      <c r="P45">
+        <v>1.5175542851489236e-06</v>
+      </c>
+      <c r="Q45">
+        <v>2.2202940503523744e-14</v>
+      </c>
+      <c r="R45">
+        <v>2.2202940503523744e-14</v>
+      </c>
+      <c r="S45">
+        <v>2.2202940503523744e-14</v>
+      </c>
+      <c r="T45">
+        <v>8</v>
+      </c>
+      <c r="U45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B46">
+        <v>0.00011800502485483109</v>
+      </c>
+      <c r="C46">
+        <v>2.2202959891310034e-14</v>
+      </c>
+      <c r="D46">
+        <v>0.0011899341933689941</v>
+      </c>
+      <c r="E46">
+        <v>0.0036938041909719221</v>
+      </c>
+      <c r="F46">
+        <v>1.0374508669634611e-10</v>
+      </c>
+      <c r="G46">
+        <v>4.4931845509735692e-12</v>
+      </c>
+      <c r="H46">
+        <v>2.2202959891310034e-14</v>
+      </c>
+      <c r="I46">
+        <v>0.99095638542935582</v>
+      </c>
+      <c r="J46">
+        <v>2.2202959891310034e-14</v>
+      </c>
+      <c r="K46">
+        <v>2.2202959891310034e-14</v>
+      </c>
+      <c r="L46">
+        <v>0.0040389052753386206</v>
+      </c>
+      <c r="M46">
+        <v>2.2202959891310034e-14</v>
+      </c>
+      <c r="N46">
+        <v>2.2202959891310034e-14</v>
+      </c>
+      <c r="O46">
+        <v>2.2202959891310034e-14</v>
+      </c>
+      <c r="P46">
+        <v>2.9657776495172646e-06</v>
+      </c>
+      <c r="Q46">
+        <v>2.2202959891310034e-14</v>
+      </c>
+      <c r="R46">
+        <v>2.2202959891310034e-14</v>
+      </c>
+      <c r="S46">
+        <v>2.2202959891310034e-14</v>
+      </c>
+      <c r="T46">
+        <v>8</v>
+      </c>
+      <c r="U46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B47">
+        <v>0.0067688090453720973</v>
+      </c>
+      <c r="C47">
+        <v>2.2205253197073058e-14</v>
+      </c>
+      <c r="D47">
+        <v>0.0036936776519692393</v>
+      </c>
+      <c r="E47">
+        <v>0.00047015689261031769</v>
+      </c>
+      <c r="F47">
+        <v>0.0010679761785993439</v>
+      </c>
+      <c r="G47">
+        <v>0.001793731460906</v>
+      </c>
+      <c r="H47">
+        <v>2.2205253197073058e-14</v>
+      </c>
+      <c r="I47">
+        <v>2.2205253197073058e-14</v>
+      </c>
+      <c r="J47">
+        <v>0.97832612348705128</v>
+      </c>
+      <c r="K47">
+        <v>2.2205253197073058e-14</v>
+      </c>
+      <c r="L47">
+        <v>0.00010291680793322719</v>
+      </c>
+      <c r="M47">
+        <v>2.2205253197073058e-14</v>
+      </c>
+      <c r="N47">
+        <v>2.2205253197073058e-14</v>
+      </c>
+      <c r="O47">
+        <v>2.2205253197073058e-14</v>
+      </c>
+      <c r="P47">
+        <v>0.0045184751498168673</v>
+      </c>
+      <c r="Q47">
+        <v>2.2205253197073058e-14</v>
+      </c>
+      <c r="R47">
+        <v>0.0032581333255417596</v>
+      </c>
+      <c r="S47">
+        <v>2.2205253197073058e-14</v>
+      </c>
+      <c r="T47">
+        <v>9</v>
+      </c>
+      <c r="U47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B48">
+        <v>0.00030610808295033234</v>
+      </c>
+      <c r="C48">
+        <v>2.2206003138371499e-14</v>
+      </c>
+      <c r="D48">
+        <v>0.0058007544274026358</v>
+      </c>
+      <c r="E48">
+        <v>0.0007100852858365151</v>
+      </c>
+      <c r="F48">
+        <v>0.0039074591098983945</v>
+      </c>
+      <c r="G48">
+        <v>0.012950192624967608</v>
+      </c>
+      <c r="H48">
+        <v>2.2206003138371499e-14</v>
+      </c>
+      <c r="I48">
+        <v>2.2206003138371499e-14</v>
+      </c>
+      <c r="J48">
+        <v>0.9707024405576774</v>
+      </c>
+      <c r="K48">
+        <v>2.2206003138371499e-14</v>
+      </c>
+      <c r="L48">
+        <v>0.00041425483377938882</v>
+      </c>
+      <c r="M48">
+        <v>2.2206003138371499e-14</v>
+      </c>
+      <c r="N48">
+        <v>2.2206003138371499e-14</v>
+      </c>
+      <c r="O48">
+        <v>2.2206003138371499e-14</v>
+      </c>
+      <c r="P48">
+        <v>0.0044371717939926392</v>
+      </c>
+      <c r="Q48">
+        <v>2.2206003138371499e-14</v>
+      </c>
+      <c r="R48">
+        <v>0.0007715332832952973</v>
+      </c>
+      <c r="S48">
+        <v>2.2206003138371499e-14</v>
+      </c>
+      <c r="T48">
+        <v>9</v>
+      </c>
+      <c r="U48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B49">
+        <v>0.0078293478768549363</v>
+      </c>
+      <c r="C49">
+        <v>2.2205309118681655e-14</v>
+      </c>
+      <c r="D49">
+        <v>0.0035805962882371209</v>
+      </c>
+      <c r="E49">
+        <v>0.00035829502302751957</v>
+      </c>
+      <c r="F49">
+        <v>0.0010503979033907815</v>
+      </c>
+      <c r="G49">
+        <v>0.0013255268486227145</v>
+      </c>
+      <c r="H49">
+        <v>2.2205309118681655e-14</v>
+      </c>
+      <c r="I49">
+        <v>2.2205309118681655e-14</v>
+      </c>
+      <c r="J49">
+        <v>0.97724639029296911</v>
+      </c>
+      <c r="K49">
+        <v>2.2205309118681655e-14</v>
+      </c>
+      <c r="L49">
+        <v>9.0961751116030618e-05</v>
+      </c>
+      <c r="M49">
+        <v>2.2205309118681655e-14</v>
+      </c>
+      <c r="N49">
+        <v>2.2205309118681655e-14</v>
+      </c>
+      <c r="O49">
+        <v>2.2205309118681655e-14</v>
+      </c>
+      <c r="P49">
+        <v>0.0049336383258751938</v>
+      </c>
+      <c r="Q49">
+        <v>2.2205309118681655e-14</v>
+      </c>
+      <c r="R49">
+        <v>0.0035848456897067576</v>
+      </c>
+      <c r="S49">
+        <v>2.2205309118681655e-14</v>
+      </c>
+      <c r="T49">
+        <v>9</v>
+      </c>
+      <c r="U49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B50">
+        <v>0.00058075079190263656</v>
+      </c>
+      <c r="C50">
+        <v>2.2206318340232298e-14</v>
+      </c>
+      <c r="D50">
+        <v>0.0048776621759803419</v>
+      </c>
+      <c r="E50">
+        <v>0.00044101425696592205</v>
+      </c>
+      <c r="F50">
+        <v>0.0031299777895375056</v>
+      </c>
+      <c r="G50">
+        <v>0.0011175021326684294</v>
+      </c>
+      <c r="H50">
+        <v>2.2206318340232298e-14</v>
+      </c>
+      <c r="I50">
+        <v>2.2206318340232298e-14</v>
+      </c>
+      <c r="J50">
+        <v>0.97094123919731312</v>
+      </c>
+      <c r="K50">
+        <v>2.2206318340232298e-14</v>
+      </c>
+      <c r="L50">
+        <v>0.00024912399254149731</v>
+      </c>
+      <c r="M50">
+        <v>2.2206318340232298e-14</v>
+      </c>
+      <c r="N50">
+        <v>2.2206318340232298e-14</v>
+      </c>
+      <c r="O50">
+        <v>2.2206318340232298e-14</v>
+      </c>
+      <c r="P50">
+        <v>0.0093219632421561796</v>
+      </c>
+      <c r="Q50">
+        <v>2.2206318340232298e-14</v>
+      </c>
+      <c r="R50">
+        <v>0.0093407664207344338</v>
+      </c>
+      <c r="S50">
+        <v>2.2206318340232298e-14</v>
+      </c>
+      <c r="T50">
+        <v>9</v>
+      </c>
+      <c r="U50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B51">
+        <v>0.00061565583874828675</v>
+      </c>
+      <c r="C51">
+        <v>2.2206403456041791e-14</v>
+      </c>
+      <c r="D51">
+        <v>0.0047510813483778447</v>
+      </c>
+      <c r="E51">
+        <v>0.00057000672019900283</v>
+      </c>
+      <c r="F51">
+        <v>0.0031640201939598066</v>
+      </c>
+      <c r="G51">
+        <v>0.0010260109375639841</v>
+      </c>
+      <c r="H51">
+        <v>2.2206403456041791e-14</v>
+      </c>
+      <c r="I51">
+        <v>2.2206403456041791e-14</v>
+      </c>
+      <c r="J51">
+        <v>0.96886563091320599</v>
+      </c>
+      <c r="K51">
+        <v>2.2206403456041791e-14</v>
+      </c>
+      <c r="L51">
+        <v>0.00024567598359029157</v>
+      </c>
+      <c r="M51">
+        <v>2.2206403456041791e-14</v>
+      </c>
+      <c r="N51">
+        <v>2.2206403456041791e-14</v>
+      </c>
+      <c r="O51">
+        <v>2.2206403456041791e-14</v>
+      </c>
+      <c r="P51">
+        <v>0.0087263093557346603</v>
+      </c>
+      <c r="Q51">
+        <v>2.2206403456041791e-14</v>
+      </c>
+      <c r="R51">
+        <v>0.012035608708420157</v>
+      </c>
+      <c r="S51">
+        <v>2.2206403456041791e-14</v>
+      </c>
+      <c r="T51">
+        <v>9</v>
+      </c>
+      <c r="U51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B52">
+        <v>0.00037113269934152093</v>
+      </c>
+      <c r="C52">
+        <v>2.2206406226031859e-14</v>
+      </c>
+      <c r="D52">
+        <v>0.0057257538482521275</v>
+      </c>
+      <c r="E52">
+        <v>0.00074605482975533292</v>
+      </c>
+      <c r="F52">
+        <v>0.0039396086599360995</v>
+      </c>
+      <c r="G52">
+        <v>0.014420786614520349</v>
+      </c>
+      <c r="H52">
+        <v>2.2206406226031859e-14</v>
+      </c>
+      <c r="I52">
+        <v>2.2206406226031859e-14</v>
+      </c>
+      <c r="J52">
+        <v>0.9682758372627055</v>
+      </c>
+      <c r="K52">
+        <v>2.2206406226031859e-14</v>
+      </c>
+      <c r="L52">
+        <v>0.00035565197842074548</v>
+      </c>
+      <c r="M52">
+        <v>2.2206406226031859e-14</v>
+      </c>
+      <c r="N52">
+        <v>2.2206406226031859e-14</v>
+      </c>
+      <c r="O52">
+        <v>2.2206406226031859e-14</v>
+      </c>
+      <c r="P52">
+        <v>0.0057324739872505245</v>
+      </c>
+      <c r="Q52">
+        <v>2.2206406226031859e-14</v>
+      </c>
+      <c r="R52">
+        <v>0.00043270011961799249</v>
+      </c>
+      <c r="S52">
+        <v>2.2206406226031859e-14</v>
+      </c>
+      <c r="T52">
+        <v>9</v>
+      </c>
+      <c r="U52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B53">
+        <v>0.0024575367307321646</v>
+      </c>
+      <c r="C53">
+        <v>2.2204844383169641e-14</v>
+      </c>
+      <c r="D53">
+        <v>0.004267934501898718</v>
+      </c>
+      <c r="E53">
+        <v>0.00039978145097587067</v>
+      </c>
+      <c r="F53">
+        <v>0.0018501794636227016</v>
+      </c>
+      <c r="G53">
+        <v>0.0028982612739894284</v>
+      </c>
+      <c r="H53">
+        <v>2.2204844383169641e-14</v>
+      </c>
+      <c r="I53">
+        <v>2.2204844383169641e-14</v>
+      </c>
+      <c r="J53">
+        <v>0.98097120987535069</v>
+      </c>
+      <c r="K53">
+        <v>2.2204844383169641e-14</v>
+      </c>
+      <c r="L53">
+        <v>9.7016223415849712e-05</v>
+      </c>
+      <c r="M53">
+        <v>2.2204844383169641e-14</v>
+      </c>
+      <c r="N53">
+        <v>2.2204844383169641e-14</v>
+      </c>
+      <c r="O53">
+        <v>2.2204844383169641e-14</v>
+      </c>
+      <c r="P53">
+        <v>0.0060008149994030223</v>
+      </c>
+      <c r="Q53">
+        <v>2.2204844383169641e-14</v>
+      </c>
+      <c r="R53">
+        <v>0.0010572654804115818</v>
+      </c>
+      <c r="S53">
+        <v>2.2204844383169641e-14</v>
+      </c>
+      <c r="T53">
+        <v>9</v>
+      </c>
+      <c r="U53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B54">
+        <v>0.0050031960808490303</v>
+      </c>
+      <c r="C54">
+        <v>2.2207448172847641e-14</v>
+      </c>
+      <c r="D54">
+        <v>0.00096029306881089207</v>
+      </c>
+      <c r="E54">
+        <v>0.02262470650376975</v>
+      </c>
+      <c r="F54">
+        <v>0.013222671572873539</v>
+      </c>
+      <c r="G54">
+        <v>8.5574459714904522e-05</v>
+      </c>
+      <c r="H54">
+        <v>2.2207448172847641e-14</v>
+      </c>
+      <c r="I54">
+        <v>2.2207448172847641e-14</v>
+      </c>
+      <c r="J54">
+        <v>2.2207448172847641e-14</v>
+      </c>
+      <c r="K54">
+        <v>0.95684400162259375</v>
+      </c>
+      <c r="L54">
+        <v>0.00066379617631845877</v>
+      </c>
+      <c r="M54">
+        <v>2.2207448172847641e-14</v>
+      </c>
+      <c r="N54">
+        <v>2.2207448172847641e-14</v>
+      </c>
+      <c r="O54">
+        <v>2.2207448172847641e-14</v>
+      </c>
+      <c r="P54">
+        <v>0.00053636775093412201</v>
+      </c>
+      <c r="Q54">
+        <v>2.2207448172847641e-14</v>
+      </c>
+      <c r="R54">
+        <v>5.9392763935563283e-05</v>
+      </c>
+      <c r="S54">
+        <v>2.2207448172847641e-14</v>
+      </c>
+      <c r="T54">
+        <v>10</v>
+      </c>
+      <c r="U54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B55">
+        <v>0.0021487510418526992</v>
+      </c>
+      <c r="C55">
+        <v>2.2211369425411069e-14</v>
+      </c>
+      <c r="D55">
+        <v>0.0023815959226787184</v>
+      </c>
+      <c r="E55">
+        <v>0.024197237856179197</v>
+      </c>
+      <c r="F55">
+        <v>0.00046264017304156399</v>
+      </c>
+      <c r="G55">
+        <v>0.012728995254517145</v>
+      </c>
+      <c r="H55">
+        <v>2.2211369425411069e-14</v>
+      </c>
+      <c r="I55">
+        <v>2.2211369425411069e-14</v>
+      </c>
+      <c r="J55">
+        <v>2.2211369425411069e-14</v>
+      </c>
+      <c r="K55">
+        <v>0.94662234846287341</v>
+      </c>
+      <c r="L55">
+        <v>0.0087147508698706792</v>
+      </c>
+      <c r="M55">
+        <v>2.2211369425411069e-14</v>
+      </c>
+      <c r="N55">
+        <v>2.2211369425411069e-14</v>
+      </c>
+      <c r="O55">
+        <v>2.2211369425411069e-14</v>
+      </c>
+      <c r="P55">
+        <v>0.00077707051324758228</v>
+      </c>
+      <c r="Q55">
+        <v>2.2211369425411069e-14</v>
+      </c>
+      <c r="R55">
+        <v>0.0019666099055390246</v>
+      </c>
+      <c r="S55">
+        <v>2.2211369425411069e-14</v>
+      </c>
+      <c r="T55">
+        <v>10</v>
+      </c>
+      <c r="U55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B56">
+        <v>0.0037177960514869096</v>
+      </c>
+      <c r="C56">
+        <v>2.2206269100044577e-14</v>
+      </c>
+      <c r="D56">
+        <v>0.0037989434543325299</v>
+      </c>
+      <c r="E56">
+        <v>0.0065514077309886598</v>
+      </c>
+      <c r="F56">
+        <v>0.0011147347196556125</v>
+      </c>
+      <c r="G56">
+        <v>0.0045871244686883274</v>
+      </c>
+      <c r="H56">
+        <v>2.2206269100044577e-14</v>
+      </c>
+      <c r="I56">
+        <v>2.2206269100044577e-14</v>
+      </c>
+      <c r="J56">
+        <v>2.2206269100044577e-14</v>
+      </c>
+      <c r="K56">
+        <v>0.97336076823584139</v>
+      </c>
+      <c r="L56">
+        <v>0.0009581132572357773</v>
+      </c>
+      <c r="M56">
+        <v>2.2206269100044577e-14</v>
+      </c>
+      <c r="N56">
+        <v>2.2206269100044577e-14</v>
+      </c>
+      <c r="O56">
+        <v>2.2206269100044577e-14</v>
+      </c>
+      <c r="P56">
+        <v>0.00093943811437159782</v>
+      </c>
+      <c r="Q56">
+        <v>2.2206269100044577e-14</v>
+      </c>
+      <c r="R56">
+        <v>0.0049716739671993877</v>
+      </c>
+      <c r="S56">
+        <v>2.2206269100044577e-14</v>
+      </c>
+      <c r="T56">
+        <v>10</v>
+      </c>
+      <c r="U56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B57">
+        <v>0.0031148154929179399</v>
+      </c>
+      <c r="C57">
+        <v>2.2204430392631364e-14</v>
+      </c>
+      <c r="D57">
+        <v>0.0010501257719630623</v>
+      </c>
+      <c r="E57">
+        <v>0.001384651388379778</v>
+      </c>
+      <c r="F57">
+        <v>0.0044843352281279331</v>
+      </c>
+      <c r="G57">
+        <v>0.0025986401379669948</v>
+      </c>
+      <c r="H57">
+        <v>2.2204430392631364e-14</v>
+      </c>
+      <c r="I57">
+        <v>2.2204430392631364e-14</v>
+      </c>
+      <c r="J57">
+        <v>2.2204430392631364e-14</v>
+      </c>
+      <c r="K57">
+        <v>0.98421324395846232</v>
+      </c>
+      <c r="L57">
+        <v>0.0020398417667203909</v>
+      </c>
+      <c r="M57">
+        <v>2.2204430392631364e-14</v>
+      </c>
+      <c r="N57">
+        <v>2.2204430392631364e-14</v>
+      </c>
+      <c r="O57">
+        <v>2.2204430392631364e-14</v>
+      </c>
+      <c r="P57">
+        <v>0.00086958568738706109</v>
+      </c>
+      <c r="Q57">
+        <v>2.2204430392631364e-14</v>
+      </c>
+      <c r="R57">
+        <v>0.00024476056787453912</v>
+      </c>
+      <c r="S57">
+        <v>2.2204430392631364e-14</v>
+      </c>
+      <c r="T57">
+        <v>10</v>
+      </c>
+      <c r="U57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B58">
+        <v>0.042662849244510664</v>
+      </c>
+      <c r="C58">
+        <v>2.7087713207039173e-13</v>
+      </c>
+      <c r="D58">
+        <v>0.044543418050376198</v>
+      </c>
+      <c r="E58">
+        <v>0.32579952808617779</v>
+      </c>
+      <c r="F58">
+        <v>0.024550712237121394</v>
+      </c>
+      <c r="G58">
+        <v>0.51162801732478225</v>
+      </c>
+      <c r="H58">
+        <v>2.7087713207039163e-13</v>
+      </c>
+      <c r="I58">
+        <v>2.7087713207039163e-13</v>
+      </c>
+      <c r="J58">
+        <v>2.7087713207039163e-13</v>
+      </c>
+      <c r="K58">
+        <v>2.7087713207039147e-13</v>
+      </c>
+      <c r="L58">
+        <v>0.010300293057231796</v>
+      </c>
+      <c r="M58">
+        <v>2.7087713207039157e-13</v>
+      </c>
+      <c r="N58">
+        <v>2.7087713207039157e-13</v>
+      </c>
+      <c r="O58">
+        <v>2.7087713207039157e-13</v>
+      </c>
+      <c r="P58">
+        <v>0.010400457767197916</v>
+      </c>
+      <c r="Q58">
+        <v>2.7087713207039137e-13</v>
+      </c>
+      <c r="R58">
+        <v>0.030114724229893301</v>
+      </c>
+      <c r="S58">
+        <v>2.7087713207039183e-13</v>
+      </c>
+      <c r="T58">
+        <v>6</v>
+      </c>
+      <c r="U58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B59">
+        <v>6.1416861609596159e-07</v>
+      </c>
+      <c r="C59">
+        <v>2.2205257084002929e-14</v>
+      </c>
+      <c r="D59">
+        <v>0.00063933808991091848</v>
+      </c>
+      <c r="E59">
+        <v>0.0029645046861273756</v>
+      </c>
+      <c r="F59">
+        <v>0.012326115496739891</v>
+      </c>
+      <c r="G59">
+        <v>1.8299173686882406e-08</v>
+      </c>
+      <c r="H59">
+        <v>2.2205257084002929e-14</v>
+      </c>
+      <c r="I59">
+        <v>2.2205257084002929e-14</v>
+      </c>
+      <c r="J59">
+        <v>2.2205257084002929e-14</v>
+      </c>
+      <c r="K59">
+        <v>2.2205257084002929e-14</v>
+      </c>
+      <c r="L59">
+        <v>0.95087003835313377</v>
+      </c>
+      <c r="M59">
+        <v>2.2205257084002929e-14</v>
+      </c>
+      <c r="N59">
+        <v>2.2205257084002929e-14</v>
+      </c>
+      <c r="O59">
+        <v>2.2205257084002929e-14</v>
+      </c>
+      <c r="P59">
+        <v>0.02474638564973252</v>
+      </c>
+      <c r="Q59">
+        <v>2.2205257084002929e-14</v>
+      </c>
+      <c r="R59">
+        <v>0.0084529852563436682</v>
+      </c>
+      <c r="S59">
+        <v>2.2205257084002929e-14</v>
+      </c>
+      <c r="T59">
+        <v>11</v>
+      </c>
+      <c r="U59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B60">
+        <v>1.2241246893210163e-06</v>
+      </c>
+      <c r="C60">
+        <v>2.220652723159087e-14</v>
+      </c>
+      <c r="D60">
+        <v>0.000575832177285632</v>
+      </c>
+      <c r="E60">
+        <v>0.0016812205589625735</v>
+      </c>
+      <c r="F60">
+        <v>0.032331159710678528</v>
+      </c>
+      <c r="G60">
+        <v>0.01897500742017081</v>
+      </c>
+      <c r="H60">
+        <v>2.220652723159087e-14</v>
+      </c>
+      <c r="I60">
+        <v>2.220652723159087e-14</v>
+      </c>
+      <c r="J60">
+        <v>2.220652723159087e-14</v>
+      </c>
+      <c r="K60">
+        <v>2.220652723159087e-14</v>
+      </c>
+      <c r="L60">
+        <v>0.94582482299905069</v>
+      </c>
+      <c r="M60">
+        <v>2.220652723159087e-14</v>
+      </c>
+      <c r="N60">
+        <v>2.220652723159087e-14</v>
+      </c>
+      <c r="O60">
+        <v>2.220652723159087e-14</v>
+      </c>
+      <c r="P60">
+        <v>0.00052426322229998177</v>
+      </c>
+      <c r="Q60">
+        <v>2.220652723159087e-14</v>
+      </c>
+      <c r="R60">
+        <v>8.6469786640335649e-05</v>
+      </c>
+      <c r="S60">
+        <v>2.220652723159087e-14</v>
+      </c>
+      <c r="T60">
+        <v>11</v>
+      </c>
+      <c r="U60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B61">
+        <v>0.00019968408891580356</v>
+      </c>
+      <c r="C61">
+        <v>2.227204863166522e-14</v>
+      </c>
+      <c r="D61">
+        <v>0.0046876134243841721</v>
+      </c>
+      <c r="E61">
+        <v>0.27683785639712816</v>
+      </c>
+      <c r="F61">
+        <v>0.0021904521507933312</v>
+      </c>
+      <c r="G61">
+        <v>0.14903736259090522</v>
+      </c>
+      <c r="H61">
+        <v>2.227204863166522e-14</v>
+      </c>
+      <c r="I61">
+        <v>2.227204863166522e-14</v>
+      </c>
+      <c r="J61">
+        <v>2.227204863166522e-14</v>
+      </c>
+      <c r="K61">
+        <v>2.227204863166522e-14</v>
+      </c>
+      <c r="L61">
+        <v>0.5659611656220852</v>
+      </c>
+      <c r="M61">
+        <v>2.227204863166522e-14</v>
+      </c>
+      <c r="N61">
+        <v>2.227204863166522e-14</v>
+      </c>
+      <c r="O61">
+        <v>2.227204863166522e-14</v>
+      </c>
+      <c r="P61">
+        <v>0.00067927937704439015</v>
+      </c>
+      <c r="Q61">
+        <v>2.227204863166522e-14</v>
+      </c>
+      <c r="R61">
+        <v>0.00040658634852110375</v>
+      </c>
+      <c r="S61">
+        <v>2.227204863166522e-14</v>
+      </c>
+      <c r="T61">
+        <v>11</v>
+      </c>
+      <c r="U61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B62">
+        <v>2.8732345426630261e-05</v>
+      </c>
+      <c r="C62">
+        <v>2.2206814831295425e-14</v>
+      </c>
+      <c r="D62">
+        <v>0.019618198372994493</v>
+      </c>
+      <c r="E62">
+        <v>0.00058589468716238504</v>
+      </c>
+      <c r="F62">
+        <v>7.6821318834755339e-05</v>
+      </c>
+      <c r="G62">
+        <v>0.012226783188731865</v>
+      </c>
+      <c r="H62">
+        <v>2.2206814831295425e-14</v>
+      </c>
+      <c r="I62">
+        <v>2.2206814831295425e-14</v>
+      </c>
+      <c r="J62">
+        <v>2.2206814831295425e-14</v>
+      </c>
+      <c r="K62">
+        <v>2.2206814831295425e-14</v>
+      </c>
+      <c r="L62">
+        <v>0.86121269904080311</v>
+      </c>
+      <c r="M62">
+        <v>2.2206814831295425e-14</v>
+      </c>
+      <c r="N62">
+        <v>2.2206814831295425e-14</v>
+      </c>
+      <c r="O62">
+        <v>2.2206814831295425e-14</v>
+      </c>
+      <c r="P62">
+        <v>0.00030987686895876275</v>
+      </c>
+      <c r="Q62">
+        <v>2.2206814831295425e-14</v>
+      </c>
+      <c r="R62">
+        <v>0.10594099417686599</v>
+      </c>
+      <c r="S62">
+        <v>2.2206814831295425e-14</v>
+      </c>
+      <c r="T62">
+        <v>11</v>
+      </c>
+      <c r="U62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B63">
+        <v>0.00017691022404582794</v>
+      </c>
+      <c r="C63">
+        <v>4.0440572606101467e-14</v>
+      </c>
+      <c r="D63">
+        <v>0.014323502099583088</v>
+      </c>
+      <c r="E63">
+        <v>0.0047708988015142499</v>
+      </c>
+      <c r="F63">
+        <v>0.00033730440226928794</v>
+      </c>
+      <c r="G63">
+        <v>0.0098806057382375134</v>
+      </c>
+      <c r="H63">
+        <v>4.044057260610148e-14</v>
+      </c>
+      <c r="I63">
+        <v>4.0440572606101473e-14</v>
+      </c>
+      <c r="J63">
+        <v>4.0440572606101473e-14</v>
+      </c>
+      <c r="K63">
+        <v>4.0440572606101473e-14</v>
+      </c>
+      <c r="L63">
+        <v>0.90167419090832057</v>
+      </c>
+      <c r="M63">
+        <v>4.044057260610148e-14</v>
+      </c>
+      <c r="N63">
+        <v>4.044057260610148e-14</v>
+      </c>
+      <c r="O63">
+        <v>4.0440572606101473e-14</v>
+      </c>
+      <c r="P63">
+        <v>0.00060162547284874329</v>
+      </c>
+      <c r="Q63">
+        <v>4.0440572606101499e-14</v>
+      </c>
+      <c r="R63">
+        <v>0.068234962352776554</v>
+      </c>
+      <c r="S63">
+        <v>4.0440572606101461e-14</v>
+      </c>
+      <c r="T63">
+        <v>11</v>
+      </c>
+      <c r="U63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B64">
+        <v>3.7397596086881234e-08</v>
+      </c>
+      <c r="C64">
+        <v>2.2204169079837961e-14</v>
+      </c>
+      <c r="D64">
+        <v>0.0015198285271042411</v>
+      </c>
+      <c r="E64">
+        <v>2.7805277969575308e-05</v>
+      </c>
+      <c r="F64">
+        <v>0.0081747658235741504</v>
+      </c>
+      <c r="G64">
+        <v>0.0097381000382896522</v>
+      </c>
+      <c r="H64">
+        <v>2.2204169079837961e-14</v>
+      </c>
+      <c r="I64">
+        <v>2.2204169079837961e-14</v>
+      </c>
+      <c r="J64">
+        <v>2.2204169079837961e-14</v>
+      </c>
+      <c r="K64">
+        <v>2.2204169079837961e-14</v>
+      </c>
+      <c r="L64">
+        <v>1.5064853841569081e-08</v>
+      </c>
+      <c r="M64">
+        <v>0.9804786994137995</v>
+      </c>
+      <c r="N64">
+        <v>2.2204169079837961e-14</v>
+      </c>
+      <c r="O64">
+        <v>2.2204169079837961e-14</v>
+      </c>
+      <c r="P64">
+        <v>6.0743658078716362e-05</v>
+      </c>
+      <c r="Q64">
+        <v>2.2204169079837961e-14</v>
+      </c>
+      <c r="R64">
+        <v>4.798534505260313e-09</v>
+      </c>
+      <c r="S64">
+        <v>2.2204169079837961e-14</v>
+      </c>
+      <c r="T64">
+        <v>12</v>
+      </c>
+      <c r="U64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B65">
+        <v>9.5289538829518536e-05</v>
+      </c>
+      <c r="C65">
+        <v>7.0542900562831269e-11</v>
+      </c>
+      <c r="D65">
+        <v>0.21316286225235345</v>
+      </c>
+      <c r="E65">
+        <v>0.11126107359126622</v>
+      </c>
+      <c r="F65">
+        <v>0.16287493644699577</v>
+      </c>
+      <c r="G65">
+        <v>0.18926184851700675</v>
+      </c>
+      <c r="H65">
+        <v>7.0542900562828581e-11</v>
+      </c>
+      <c r="I65">
+        <v>7.0542900562828348e-11</v>
+      </c>
+      <c r="J65">
+        <v>7.0542900562828348e-11</v>
+      </c>
+      <c r="K65">
+        <v>7.0542900562828555e-11</v>
+      </c>
+      <c r="L65">
+        <v>0.0031202969774642322</v>
+      </c>
+      <c r="M65">
+        <v>0.22284898333628467</v>
+      </c>
+      <c r="N65">
+        <v>7.0542900562828555e-11</v>
+      </c>
+      <c r="O65">
+        <v>7.0542900562828555e-11</v>
+      </c>
+      <c r="P65">
+        <v>0.097314683506844815</v>
+      </c>
+      <c r="Q65">
+        <v>7.0542900562828555e-11</v>
+      </c>
+      <c r="R65">
+        <v>6.0025198068552698e-05</v>
+      </c>
+      <c r="S65">
+        <v>7.0542900562831205e-11</v>
+      </c>
+      <c r="T65">
+        <v>12</v>
+      </c>
+      <c r="U65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B66">
+        <v>7.9381892184147128e-08</v>
+      </c>
+      <c r="C66">
+        <v>2.2204224399416545e-14</v>
+      </c>
+      <c r="D66">
+        <v>0.0019961881881777194</v>
+      </c>
+      <c r="E66">
+        <v>2.9232372016163515e-05</v>
+      </c>
+      <c r="F66">
+        <v>0.0085586282299900795</v>
+      </c>
+      <c r="G66">
+        <v>0.0085229435291197305</v>
+      </c>
+      <c r="H66">
+        <v>2.2204224399416545e-14</v>
+      </c>
+      <c r="I66">
+        <v>2.2204224399416545e-14</v>
+      </c>
+      <c r="J66">
+        <v>2.2204224399416545e-14</v>
+      </c>
+      <c r="K66">
+        <v>2.2204224399416545e-14</v>
+      </c>
+      <c r="L66">
+        <v>8.2191950136944316e-09</v>
+      </c>
+      <c r="M66">
+        <v>0.9808320635097515</v>
+      </c>
+      <c r="N66">
+        <v>2.2204224399416545e-14</v>
+      </c>
+      <c r="O66">
+        <v>2.2204224399416545e-14</v>
+      </c>
+      <c r="P66">
+        <v>6.0855925607160362e-05</v>
+      </c>
+      <c r="Q66">
+        <v>2.2204224399416545e-14</v>
+      </c>
+      <c r="R66">
+        <v>6.4405072525888022e-10</v>
+      </c>
+      <c r="S66">
+        <v>2.2204224399416545e-14</v>
+      </c>
+      <c r="T66">
+        <v>12</v>
+      </c>
+      <c r="U66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B67">
+        <v>1.4972501764299471e-07</v>
+      </c>
+      <c r="C67">
+        <v>2.2204192583678287e-14</v>
+      </c>
+      <c r="D67">
+        <v>0.0026085537581568997</v>
+      </c>
+      <c r="E67">
+        <v>3.4622064743527144e-05</v>
+      </c>
+      <c r="F67">
+        <v>0.016410160614902875</v>
+      </c>
+      <c r="G67">
+        <v>0.0070217494880833332</v>
+      </c>
+      <c r="H67">
+        <v>2.2204192583678287e-14</v>
+      </c>
+      <c r="I67">
+        <v>2.2204192583678287e-14</v>
+      </c>
+      <c r="J67">
+        <v>2.2204192583678287e-14</v>
+      </c>
+      <c r="K67">
+        <v>2.2204192583678287e-14</v>
+      </c>
+      <c r="L67">
+        <v>1.4986388264775813e-08</v>
+      </c>
+      <c r="M67">
+        <v>0.97384905126535959</v>
+      </c>
+      <c r="N67">
+        <v>2.2204192583678287e-14</v>
+      </c>
+      <c r="O67">
+        <v>2.2204192583678287e-14</v>
+      </c>
+      <c r="P67">
+        <v>7.5697286399995263e-05</v>
+      </c>
+      <c r="Q67">
+        <v>2.2204192583678287e-14</v>
+      </c>
+      <c r="R67">
+        <v>8.1074802855266805e-10</v>
+      </c>
+      <c r="S67">
+        <v>2.2204192583678287e-14</v>
+      </c>
+      <c r="T67">
+        <v>12</v>
+      </c>
+      <c r="U67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B68">
+        <v>0.00020642100627809079</v>
+      </c>
+      <c r="C68">
+        <v>4.1229520064172711e-12</v>
+      </c>
+      <c r="D68">
+        <v>0.16752355231097607</v>
+      </c>
+      <c r="E68">
+        <v>0.18294001150090469</v>
+      </c>
+      <c r="F68">
+        <v>0.1921566508132409</v>
+      </c>
+      <c r="G68">
+        <v>0.017013048330064465</v>
+      </c>
+      <c r="H68">
+        <v>4.1229520064172711e-12</v>
+      </c>
+      <c r="I68">
+        <v>4.1229520064172711e-12</v>
+      </c>
+      <c r="J68">
+        <v>4.1229520064172711e-12</v>
+      </c>
+      <c r="K68">
+        <v>4.1229520064172743e-12</v>
+      </c>
+      <c r="L68">
+        <v>0.0061049939767072112</v>
+      </c>
+      <c r="M68">
+        <v>4.1229520064172711e-12</v>
+      </c>
+      <c r="N68">
+        <v>0.2186987260051545</v>
+      </c>
+      <c r="O68">
+        <v>4.1229520064172679e-12</v>
+      </c>
+      <c r="P68">
+        <v>0.079155624797362489</v>
+      </c>
+      <c r="Q68">
+        <v>4.1229520064172646e-12</v>
+      </c>
+      <c r="R68">
+        <v>0.13620097122220512</v>
+      </c>
+      <c r="S68">
+        <v>4.122952006417259e-12</v>
+      </c>
+      <c r="T68">
+        <v>13</v>
+      </c>
+      <c r="U68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B69">
+        <v>6.7814765007007921e-10</v>
+      </c>
+      <c r="C69">
+        <v>2.2203794762250615e-14</v>
+      </c>
+      <c r="D69">
+        <v>0.0036857146614598831</v>
+      </c>
+      <c r="E69">
+        <v>0.0066009972452900955</v>
+      </c>
+      <c r="F69">
+        <v>5.8626784599248234e-09</v>
+      </c>
+      <c r="G69">
+        <v>1.1974318930862312e-10</v>
+      </c>
+      <c r="H69">
+        <v>2.2203794762250615e-14</v>
+      </c>
+      <c r="I69">
+        <v>2.2203794762250615e-14</v>
+      </c>
+      <c r="J69">
+        <v>2.2203794762250615e-14</v>
+      </c>
+      <c r="K69">
+        <v>2.2203794762250615e-14</v>
+      </c>
+      <c r="L69">
+        <v>1.4979996737922372e-06</v>
+      </c>
+      <c r="M69">
+        <v>2.2203794762250615e-14</v>
+      </c>
+      <c r="N69">
+        <v>2.2203794762250615e-14</v>
+      </c>
+      <c r="O69">
+        <v>0.98602976875088355</v>
+      </c>
+      <c r="P69">
+        <v>0.0036820093359634064</v>
+      </c>
+      <c r="Q69">
+        <v>2.2203794762250615e-14</v>
+      </c>
+      <c r="R69">
+        <v>5.3459602078586096e-09</v>
+      </c>
+      <c r="S69">
+        <v>2.2203794762250615e-14</v>
+      </c>
+      <c r="T69">
+        <v>14</v>
+      </c>
+      <c r="U69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B70">
+        <v>2.734065385262303e-09</v>
+      </c>
+      <c r="C70">
+        <v>2.2204742662096238e-14</v>
+      </c>
+      <c r="D70">
+        <v>0.002376947428603365</v>
+      </c>
+      <c r="E70">
+        <v>0.012704109114729108</v>
+      </c>
+      <c r="F70">
+        <v>8.2547753351502999e-08</v>
+      </c>
+      <c r="G70">
+        <v>1.3442334465459377e-11</v>
+      </c>
+      <c r="H70">
+        <v>2.2204742662096238e-14</v>
+      </c>
+      <c r="I70">
+        <v>2.2204742662096238e-14</v>
+      </c>
+      <c r="J70">
+        <v>2.2204742662096238e-14</v>
+      </c>
+      <c r="K70">
+        <v>2.2204742662096238e-14</v>
+      </c>
+      <c r="L70">
+        <v>8.2154674936494082e-07</v>
+      </c>
+      <c r="M70">
+        <v>2.2204742662096238e-14</v>
+      </c>
+      <c r="N70">
+        <v>2.2204742662096238e-14</v>
+      </c>
+      <c r="O70">
+        <v>0.97554476406076329</v>
+      </c>
+      <c r="P70">
+        <v>0.0093732612311565842</v>
+      </c>
+      <c r="Q70">
+        <v>2.2204742662096238e-14</v>
+      </c>
+      <c r="R70">
+        <v>1.132253733893176e-08</v>
+      </c>
+      <c r="S70">
+        <v>2.2204742662096238e-14</v>
+      </c>
+      <c r="T70">
+        <v>14</v>
+      </c>
+      <c r="U70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B71">
+        <v>3.0416904417630836e-10</v>
+      </c>
+      <c r="C71">
+        <v>2.2203596467060585e-14</v>
+      </c>
+      <c r="D71">
+        <v>0.0020217311311646431</v>
+      </c>
+      <c r="E71">
+        <v>0.0056690311976139275</v>
+      </c>
+      <c r="F71">
+        <v>5.3418035882217424e-09</v>
+      </c>
+      <c r="G71">
+        <v>2.2735202355922906e-10</v>
+      </c>
+      <c r="H71">
+        <v>2.2203596467060585e-14</v>
+      </c>
+      <c r="I71">
+        <v>2.2203596467060585e-14</v>
+      </c>
+      <c r="J71">
+        <v>2.2203596467060585e-14</v>
+      </c>
+      <c r="K71">
+        <v>2.2203596467060585e-14</v>
+      </c>
+      <c r="L71">
+        <v>4.8178788228876275e-06</v>
+      </c>
+      <c r="M71">
+        <v>2.2203596467060585e-14</v>
+      </c>
+      <c r="N71">
+        <v>2.2203596467060585e-14</v>
+      </c>
+      <c r="O71">
+        <v>0.98708059118131464</v>
+      </c>
+      <c r="P71">
+        <v>0.005223819970412962</v>
+      </c>
+      <c r="Q71">
+        <v>2.2203596467060585e-14</v>
+      </c>
+      <c r="R71">
+        <v>2.7671466128086094e-09</v>
+      </c>
+      <c r="S71">
+        <v>2.2203596467060585e-14</v>
+      </c>
+      <c r="T71">
+        <v>14</v>
+      </c>
+      <c r="U71">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B72">
+        <v>1.4002227251585647e-09</v>
+      </c>
+      <c r="C72">
+        <v>2.2202198749373818e-14</v>
+      </c>
+      <c r="D72">
+        <v>0.00036727524468901246</v>
+      </c>
+      <c r="E72">
+        <v>0.0066336799411842087</v>
+      </c>
+      <c r="F72">
+        <v>0.00042369246084488166</v>
+      </c>
+      <c r="G72">
+        <v>1.3659907854210605e-07</v>
+      </c>
+      <c r="H72">
+        <v>2.2202198749373818e-14</v>
+      </c>
+      <c r="I72">
+        <v>2.2202198749373818e-14</v>
+      </c>
+      <c r="J72">
+        <v>2.2202198749373818e-14</v>
+      </c>
+      <c r="K72">
+        <v>2.2202198749373818e-14</v>
+      </c>
+      <c r="L72">
+        <v>1.2115892451853848e-06</v>
+      </c>
+      <c r="M72">
+        <v>2.2202198749373818e-14</v>
+      </c>
+      <c r="N72">
+        <v>2.2202198749373818e-14</v>
+      </c>
+      <c r="O72">
+        <v>0.99111042431681406</v>
+      </c>
+      <c r="P72">
+        <v>0.0014635492849294676</v>
+      </c>
+      <c r="Q72">
+        <v>2.2202198749373818e-14</v>
+      </c>
+      <c r="R72">
+        <v>2.9162792024934358e-08</v>
+      </c>
+      <c r="S72">
+        <v>2.2202198749373818e-14</v>
+      </c>
+      <c r="T72">
+        <v>14</v>
+      </c>
+      <c r="U72">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B73">
+        <v>1.6746455968820248e-09</v>
+      </c>
+      <c r="C73">
+        <v>2.2201806093571698e-14</v>
+      </c>
+      <c r="D73">
+        <v>0.00047688065014575765</v>
+      </c>
+      <c r="E73">
+        <v>0.0050795872035523208</v>
+      </c>
+      <c r="F73">
+        <v>7.4601644768528525e-05</v>
+      </c>
+      <c r="G73">
+        <v>3.5322169820319461e-06</v>
+      </c>
+      <c r="H73">
+        <v>2.2201806093571698e-14</v>
+      </c>
+      <c r="I73">
+        <v>2.2201806093571698e-14</v>
+      </c>
+      <c r="J73">
+        <v>2.2201806093571698e-14</v>
+      </c>
+      <c r="K73">
+        <v>2.2201806093571698e-14</v>
+      </c>
+      <c r="L73">
+        <v>6.948052619972253e-06</v>
+      </c>
+      <c r="M73">
+        <v>2.2201806093571698e-14</v>
+      </c>
+      <c r="N73">
+        <v>2.2201806093571698e-14</v>
+      </c>
+      <c r="O73">
+        <v>0.99343851880826839</v>
+      </c>
+      <c r="P73">
+        <v>0.00091988593149345307</v>
+      </c>
+      <c r="Q73">
+        <v>2.2201806093571698e-14</v>
+      </c>
+      <c r="R73">
+        <v>4.3817324320069728e-08</v>
+      </c>
+      <c r="S73">
+        <v>2.2201806093571698e-14</v>
+      </c>
+      <c r="T73">
+        <v>14</v>
+      </c>
+      <c r="U73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B74">
+        <v>3.5878548778317094e-09</v>
+      </c>
+      <c r="C74">
+        <v>2.2202305140408502e-14</v>
+      </c>
+      <c r="D74">
+        <v>0.00068042191326901484</v>
+      </c>
+      <c r="E74">
+        <v>0.0041440228884955044</v>
+      </c>
+      <c r="F74">
+        <v>0.0015056671119455661</v>
+      </c>
+      <c r="G74">
+        <v>7.0162870451274865e-06</v>
+      </c>
+      <c r="H74">
+        <v>2.2202305140408502e-14</v>
+      </c>
+      <c r="I74">
+        <v>2.2202305140408502e-14</v>
+      </c>
+      <c r="J74">
+        <v>2.2202305140408502e-14</v>
+      </c>
+      <c r="K74">
+        <v>2.2202305140408502e-14</v>
+      </c>
+      <c r="L74">
+        <v>0.00011218781656959363</v>
+      </c>
+      <c r="M74">
+        <v>2.2202305140408502e-14</v>
+      </c>
+      <c r="N74">
+        <v>2.2202305140408502e-14</v>
+      </c>
+      <c r="O74">
+        <v>0.99322632818021528</v>
+      </c>
+      <c r="P74">
+        <v>0.0003234388374692759</v>
+      </c>
+      <c r="Q74">
+        <v>2.2202305140408502e-14</v>
+      </c>
+      <c r="R74">
+        <v>9.1337693593389172e-07</v>
+      </c>
+      <c r="S74">
+        <v>2.2202305140408502e-14</v>
+      </c>
+      <c r="T74">
+        <v>14</v>
+      </c>
+      <c r="U74">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B75">
+        <v>8.0758001444253722e-10</v>
+      </c>
+      <c r="C75">
+        <v>2.2202835588104643e-14</v>
+      </c>
+      <c r="D75">
+        <v>0.00024868327454221966</v>
+      </c>
+      <c r="E75">
+        <v>0.0038452439300529452</v>
+      </c>
+      <c r="F75">
+        <v>7.8903034553853417e-05</v>
+      </c>
+      <c r="G75">
+        <v>1.5817759695539053e-06</v>
+      </c>
+      <c r="H75">
+        <v>2.2202835588104643e-14</v>
+      </c>
+      <c r="I75">
+        <v>2.2202835588104643e-14</v>
+      </c>
+      <c r="J75">
+        <v>2.2202835588104643e-14</v>
+      </c>
+      <c r="K75">
+        <v>2.2202835588104643e-14</v>
+      </c>
+      <c r="L75">
+        <v>2.6390523343203309e-06</v>
+      </c>
+      <c r="M75">
+        <v>2.2202835588104643e-14</v>
+      </c>
+      <c r="N75">
+        <v>2.2202835588104643e-14</v>
+      </c>
+      <c r="O75">
+        <v>0.99024008112478812</v>
+      </c>
+      <c r="P75">
+        <v>0.0055828243572540407</v>
+      </c>
+      <c r="Q75">
+        <v>2.2202835588104643e-14</v>
+      </c>
+      <c r="R75">
+        <v>4.2642725176008412e-08</v>
+      </c>
+      <c r="S75">
+        <v>2.2202835588104643e-14</v>
+      </c>
+      <c r="T75">
+        <v>14</v>
+      </c>
+      <c r="U75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B76">
+        <v>4.6798274880178438e-11</v>
+      </c>
+      <c r="C76">
+        <v>2.2201837206417721e-14</v>
+      </c>
+      <c r="D76">
+        <v>0.00043615471086843748</v>
+      </c>
+      <c r="E76">
+        <v>0.00012992512343636394</v>
+      </c>
+      <c r="F76">
+        <v>1.288169404130127e-05</v>
+      </c>
+      <c r="G76">
+        <v>1.3928327148845134e-09</v>
+      </c>
+      <c r="H76">
+        <v>2.2201837206417721e-14</v>
+      </c>
+      <c r="I76">
+        <v>2.2201837206417721e-14</v>
+      </c>
+      <c r="J76">
+        <v>2.2201837206417721e-14</v>
+      </c>
+      <c r="K76">
+        <v>2.2201837206417721e-14</v>
+      </c>
+      <c r="L76">
+        <v>0.00011228714804591361</v>
+      </c>
+      <c r="M76">
+        <v>2.2201837206417721e-14</v>
+      </c>
+      <c r="N76">
+        <v>2.2201837206417721e-14</v>
+      </c>
+      <c r="O76">
+        <v>2.2201837206417721e-14</v>
+      </c>
+      <c r="P76">
+        <v>0.88162481600085518</v>
+      </c>
+      <c r="Q76">
+        <v>2.2201837206417721e-14</v>
+      </c>
+      <c r="R76">
+        <v>0.11768393388289973</v>
+      </c>
+      <c r="S76">
+        <v>2.2201837206417721e-14</v>
+      </c>
+      <c r="T76">
+        <v>15</v>
+      </c>
+      <c r="U76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B77">
+        <v>2.033877561194239e-06</v>
+      </c>
+      <c r="C77">
+        <v>2.22020914504616e-14</v>
+      </c>
+      <c r="D77">
+        <v>5.5843631037995425e-05</v>
+      </c>
+      <c r="E77">
+        <v>1.2620856802346126e-05</v>
+      </c>
+      <c r="F77">
+        <v>0.0078488238319175622</v>
+      </c>
+      <c r="G77">
+        <v>0.0017153022843217128</v>
+      </c>
+      <c r="H77">
+        <v>2.22020914504616e-14</v>
+      </c>
+      <c r="I77">
+        <v>2.22020914504616e-14</v>
+      </c>
+      <c r="J77">
+        <v>2.22020914504616e-14</v>
+      </c>
+      <c r="K77">
+        <v>2.22020914504616e-14</v>
+      </c>
+      <c r="L77">
+        <v>0.00028640934306898127</v>
+      </c>
+      <c r="M77">
+        <v>2.22020914504616e-14</v>
+      </c>
+      <c r="N77">
+        <v>2.22020914504616e-14</v>
+      </c>
+      <c r="O77">
+        <v>2.22020914504616e-14</v>
+      </c>
+      <c r="P77">
+        <v>0.9900320383628195</v>
+      </c>
+      <c r="Q77">
+        <v>2.22020914504616e-14</v>
+      </c>
+      <c r="R77">
+        <v>4.6927812248734662e-05</v>
+      </c>
+      <c r="S77">
+        <v>2.22020914504616e-14</v>
+      </c>
+      <c r="T77">
+        <v>15</v>
+      </c>
+      <c r="U77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B78">
+        <v>9.7329230273224242e-06</v>
+      </c>
+      <c r="C78">
+        <v>2.2201953292072265e-14</v>
+      </c>
+      <c r="D78">
+        <v>5.2836831097589166e-05</v>
+      </c>
+      <c r="E78">
+        <v>4.028527504909629e-06</v>
+      </c>
+      <c r="F78">
+        <v>0.0020341702852777897</v>
+      </c>
+      <c r="G78">
+        <v>0.0046062810909446809</v>
+      </c>
+      <c r="H78">
+        <v>2.2201953292072265e-14</v>
+      </c>
+      <c r="I78">
+        <v>2.2201953292072265e-14</v>
+      </c>
+      <c r="J78">
+        <v>2.2201953292072265e-14</v>
+      </c>
+      <c r="K78">
+        <v>2.2201953292072265e-14</v>
+      </c>
+      <c r="L78">
+        <v>0.00042021772558357799</v>
+      </c>
+      <c r="M78">
+        <v>2.2201953292072265e-14</v>
+      </c>
+      <c r="N78">
+        <v>2.2201953292072265e-14</v>
+      </c>
+      <c r="O78">
+        <v>2.2201953292072265e-14</v>
+      </c>
+      <c r="P78">
+        <v>0.99247788288331851</v>
+      </c>
+      <c r="Q78">
+        <v>2.2201953292072265e-14</v>
+      </c>
+      <c r="R78">
+        <v>0.00039484973302356769</v>
+      </c>
+      <c r="S78">
+        <v>2.2201953292072265e-14</v>
+      </c>
+      <c r="T78">
+        <v>15</v>
+      </c>
+      <c r="U78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B79">
+        <v>1.3124875764073021e-05</v>
+      </c>
+      <c r="C79">
+        <v>2.22020704871596e-14</v>
+      </c>
+      <c r="D79">
+        <v>6.6805229119543008e-05</v>
+      </c>
+      <c r="E79">
+        <v>7.6730141971644529e-06</v>
+      </c>
+      <c r="F79">
+        <v>0.0044374923677186979</v>
+      </c>
+      <c r="G79">
+        <v>0.0014390224499362912</v>
+      </c>
+      <c r="H79">
+        <v>2.22020704871596e-14</v>
+      </c>
+      <c r="I79">
+        <v>2.22020704871596e-14</v>
+      </c>
+      <c r="J79">
+        <v>2.22020704871596e-14</v>
+      </c>
+      <c r="K79">
+        <v>2.22020704871596e-14</v>
+      </c>
+      <c r="L79">
+        <v>0.00099396789114040594</v>
+      </c>
+      <c r="M79">
+        <v>2.22020704871596e-14</v>
+      </c>
+      <c r="N79">
+        <v>2.22020704871596e-14</v>
+      </c>
+      <c r="O79">
+        <v>2.22020704871596e-14</v>
+      </c>
+      <c r="P79">
+        <v>0.99295445176492281</v>
+      </c>
+      <c r="Q79">
+        <v>2.22020704871596e-14</v>
+      </c>
+      <c r="R79">
+        <v>8.7462406979024195e-05</v>
+      </c>
+      <c r="S79">
+        <v>2.22020704871596e-14</v>
+      </c>
+      <c r="T79">
+        <v>15</v>
+      </c>
+      <c r="U79">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B80">
+        <v>8.4845205333191159e-06</v>
+      </c>
+      <c r="C80">
+        <v>2.2203814512252676e-14</v>
+      </c>
+      <c r="D80">
+        <v>0.0005268809995802445</v>
+      </c>
+      <c r="E80">
+        <v>0.0007495821223928111</v>
+      </c>
+      <c r="F80">
+        <v>0.010384255605887833</v>
+      </c>
+      <c r="G80">
+        <v>0.00018299793654353875</v>
+      </c>
+      <c r="H80">
+        <v>2.2203814512252676e-14</v>
+      </c>
+      <c r="I80">
+        <v>2.2203814512252676e-14</v>
+      </c>
+      <c r="J80">
+        <v>2.2203814512252676e-14</v>
+      </c>
+      <c r="K80">
+        <v>2.2203814512252676e-14</v>
+      </c>
+      <c r="L80">
+        <v>0.0041661966872469456</v>
+      </c>
+      <c r="M80">
+        <v>2.2203814512252676e-14</v>
+      </c>
+      <c r="N80">
+        <v>2.2203814512252676e-14</v>
+      </c>
+      <c r="O80">
+        <v>2.2203814512252676e-14</v>
+      </c>
+      <c r="P80">
+        <v>0.97899309793222056</v>
+      </c>
+      <c r="Q80">
+        <v>2.2203814512252676e-14</v>
+      </c>
+      <c r="R80">
+        <v>0.0049885041953726377</v>
+      </c>
+      <c r="S80">
+        <v>2.2203814512252676e-14</v>
+      </c>
+      <c r="T80">
+        <v>15</v>
+      </c>
+      <c r="U80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B81">
+        <v>5.0093921726479192e-11</v>
+      </c>
+      <c r="C81">
+        <v>2.2208109069600668e-14</v>
+      </c>
+      <c r="D81">
+        <v>0.00019772983761086281</v>
+      </c>
+      <c r="E81">
+        <v>0.0046621265766072922</v>
+      </c>
+      <c r="F81">
+        <v>0.030167935493242631</v>
+      </c>
+      <c r="G81">
+        <v>1.3957233637808566e-09</v>
+      </c>
+      <c r="H81">
+        <v>2.2208109069600668e-14</v>
+      </c>
+      <c r="I81">
+        <v>2.2208109069600668e-14</v>
+      </c>
+      <c r="J81">
+        <v>2.2208109069600668e-14</v>
+      </c>
+      <c r="K81">
+        <v>2.2208109069600668e-14</v>
+      </c>
+      <c r="L81">
+        <v>0.00022399829449106824</v>
+      </c>
+      <c r="M81">
+        <v>2.2208109069600668e-14</v>
+      </c>
+      <c r="N81">
+        <v>2.2208109069600668e-14</v>
+      </c>
+      <c r="O81">
+        <v>2.2208109069600668e-14</v>
+      </c>
+      <c r="P81">
+        <v>0.94931881424617282</v>
+      </c>
+      <c r="Q81">
+        <v>2.2208109069600668e-14</v>
+      </c>
+      <c r="R81">
+        <v>0.015429394105836023</v>
+      </c>
+      <c r="S81">
+        <v>2.2208109069600668e-14</v>
+      </c>
+      <c r="T81">
+        <v>15</v>
+      </c>
+      <c r="U81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B82">
+        <v>1.1245167586598868e-08</v>
+      </c>
+      <c r="C82">
+        <v>2.2201892887829444e-14</v>
+      </c>
+      <c r="D82">
+        <v>3.3477480897815382e-05</v>
+      </c>
+      <c r="E82">
+        <v>0.00022447425008780813</v>
+      </c>
+      <c r="F82">
+        <v>0.0064625361701463324</v>
+      </c>
+      <c r="G82">
+        <v>0.0010201907963151464</v>
+      </c>
+      <c r="H82">
+        <v>2.2201892887829444e-14</v>
+      </c>
+      <c r="I82">
+        <v>2.2201892887829444e-14</v>
+      </c>
+      <c r="J82">
+        <v>2.2201892887829444e-14</v>
+      </c>
+      <c r="K82">
+        <v>2.2201892887829444e-14</v>
+      </c>
+      <c r="L82">
+        <v>0.00011816372289389524</v>
+      </c>
+      <c r="M82">
+        <v>2.2201892887829444e-14</v>
+      </c>
+      <c r="N82">
+        <v>2.2201892887829444e-14</v>
+      </c>
+      <c r="O82">
+        <v>2.2201892887829444e-14</v>
+      </c>
+      <c r="P82">
+        <v>0.00020432599976206222</v>
+      </c>
+      <c r="Q82">
+        <v>0.9919362141312621</v>
+      </c>
+      <c r="R82">
+        <v>6.0620326760988215e-07</v>
+      </c>
+      <c r="S82">
+        <v>2.2201892887829444e-14</v>
+      </c>
+      <c r="T82">
+        <v>16</v>
+      </c>
+      <c r="U82">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83">
+        <v>2.1332254799193464e-09</v>
+      </c>
+      <c r="C83">
+        <v>2.2210780330000373e-14</v>
+      </c>
+      <c r="D83">
+        <v>2.2985333481330418e-05</v>
+      </c>
+      <c r="E83">
+        <v>0.015532401658364179</v>
+      </c>
+      <c r="F83">
+        <v>0.014369610798856665</v>
+      </c>
+      <c r="G83">
+        <v>0.019851277061561742</v>
+      </c>
+      <c r="H83">
+        <v>2.2210780330000373e-14</v>
+      </c>
+      <c r="I83">
+        <v>2.2210780330000373e-14</v>
+      </c>
+      <c r="J83">
+        <v>2.2210780330000373e-14</v>
+      </c>
+      <c r="K83">
+        <v>2.2210780330000373e-14</v>
+      </c>
+      <c r="L83">
+        <v>0.00015853769444368815</v>
+      </c>
+      <c r="M83">
+        <v>2.2210780330000373e-14</v>
+      </c>
+      <c r="N83">
+        <v>2.2210780330000373e-14</v>
+      </c>
+      <c r="O83">
+        <v>2.2210780330000373e-14</v>
+      </c>
+      <c r="P83">
+        <v>0.00029350786289232387</v>
+      </c>
+      <c r="Q83">
+        <v>0.94905860622302785</v>
+      </c>
+      <c r="R83">
+        <v>0.00071307123394688163</v>
+      </c>
+      <c r="S83">
+        <v>2.2210780330000373e-14</v>
+      </c>
+      <c r="T83">
+        <v>16</v>
+      </c>
+      <c r="U83">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B84">
+        <v>2.2985239435021361e-11</v>
+      </c>
+      <c r="C84">
+        <v>2.2205119922301819e-14</v>
+      </c>
+      <c r="D84">
+        <v>1.8005705276852893e-06</v>
+      </c>
+      <c r="E84">
+        <v>0.0053872234312585913</v>
+      </c>
+      <c r="F84">
+        <v>0.017665401505881851</v>
+      </c>
+      <c r="G84">
+        <v>0.0072654534394354211</v>
+      </c>
+      <c r="H84">
+        <v>2.2205119922301819e-14</v>
+      </c>
+      <c r="I84">
+        <v>2.2205119922301819e-14</v>
+      </c>
+      <c r="J84">
+        <v>2.2205119922301819e-14</v>
+      </c>
+      <c r="K84">
+        <v>2.2205119922301819e-14</v>
+      </c>
+      <c r="L84">
+        <v>1.5888401147055051e-05</v>
+      </c>
+      <c r="M84">
+        <v>2.2205119922301819e-14</v>
+      </c>
+      <c r="N84">
+        <v>2.2205119922301819e-14</v>
+      </c>
+      <c r="O84">
+        <v>2.2205119922301819e-14</v>
+      </c>
+      <c r="P84">
+        <v>2.0258290450534681e-05</v>
+      </c>
+      <c r="Q84">
+        <v>0.96964355871265162</v>
+      </c>
+      <c r="R84">
+        <v>4.1562546207857239e-07</v>
+      </c>
+      <c r="S84">
+        <v>2.2205119922301819e-14</v>
+      </c>
+      <c r="T84">
+        <v>16</v>
+      </c>
+      <c r="U84">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B85">
+        <v>0.00052823819817834764</v>
+      </c>
+      <c r="C85">
+        <v>2.2214885006603001e-14</v>
+      </c>
+      <c r="D85">
+        <v>0.0036078311560574453</v>
+      </c>
+      <c r="E85">
+        <v>0.0012378052565572965</v>
+      </c>
+      <c r="F85">
+        <v>0.0084604763478627956</v>
+      </c>
+      <c r="G85">
+        <v>0.029467133219261563</v>
+      </c>
+      <c r="H85">
+        <v>2.2214885006603001e-14</v>
+      </c>
+      <c r="I85">
+        <v>2.2214885006603001e-14</v>
+      </c>
+      <c r="J85">
+        <v>2.2214885006603001e-14</v>
+      </c>
+      <c r="K85">
+        <v>2.2214885006603001e-14</v>
+      </c>
+      <c r="L85">
+        <v>0.01241178305809754</v>
+      </c>
+      <c r="M85">
+        <v>2.2214885006603001e-14</v>
+      </c>
+      <c r="N85">
+        <v>2.2214885006603001e-14</v>
+      </c>
+      <c r="O85">
+        <v>2.2214885006603001e-14</v>
+      </c>
+      <c r="P85">
+        <v>0.00058584726138883247</v>
+      </c>
+      <c r="Q85">
+        <v>0.93625945411813161</v>
+      </c>
+      <c r="R85">
+        <v>0.0074414313842646861</v>
+      </c>
+      <c r="S85">
+        <v>2.2214885006603001e-14</v>
+      </c>
+      <c r="T85">
+        <v>16</v>
+      </c>
+      <c r="U85">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B86">
+        <v>0.0021391604498400105</v>
+      </c>
+      <c r="C86">
+        <v>2.2237346278290125e-14</v>
+      </c>
+      <c r="D86">
+        <v>0.00094433339316737583</v>
+      </c>
+      <c r="E86">
+        <v>0.044194341663838906</v>
+      </c>
+      <c r="F86">
+        <v>0.024094472071266176</v>
+      </c>
+      <c r="G86">
+        <v>0.001988628504226831</v>
+      </c>
+      <c r="H86">
+        <v>2.2237346278290125e-14</v>
+      </c>
+      <c r="I86">
+        <v>2.2237346278290125e-14</v>
+      </c>
+      <c r="J86">
+        <v>2.2237346278290125e-14</v>
+      </c>
+      <c r="K86">
+        <v>2.2237346278290125e-14</v>
+      </c>
+      <c r="L86">
+        <v>0.035195472444937217</v>
+      </c>
+      <c r="M86">
+        <v>2.2237346278290125e-14</v>
+      </c>
+      <c r="N86">
+        <v>2.2237346278290125e-14</v>
+      </c>
+      <c r="O86">
+        <v>2.2237346278290125e-14</v>
+      </c>
+      <c r="P86">
+        <v>0.0004169359732867284</v>
+      </c>
+      <c r="Q86">
+        <v>0.89086293124403959</v>
+      </c>
+      <c r="R86">
+        <v>0.00016372425519703643</v>
+      </c>
+      <c r="S86">
+        <v>2.2237346278290125e-14</v>
+      </c>
+      <c r="T86">
+        <v>16</v>
+      </c>
+      <c r="U86">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B87">
+        <v>1.2835659506421867e-05</v>
+      </c>
+      <c r="C87">
+        <v>2.222006252307156e-14</v>
+      </c>
+      <c r="D87">
+        <v>0.0028069778440644151</v>
+      </c>
+      <c r="E87">
+        <v>0.00054844095524859417</v>
+      </c>
+      <c r="F87">
+        <v>0.0018280710633931754</v>
+      </c>
+      <c r="G87">
+        <v>0.36758750887313607</v>
+      </c>
+      <c r="H87">
+        <v>2.222006252307156e-14</v>
+      </c>
+      <c r="I87">
+        <v>2.222006252307156e-14</v>
+      </c>
+      <c r="J87">
+        <v>2.222006252307156e-14</v>
+      </c>
+      <c r="K87">
+        <v>2.222006252307156e-14</v>
+      </c>
+      <c r="L87">
+        <v>0.0029243101415158271</v>
+      </c>
+      <c r="M87">
+        <v>2.222006252307156e-14</v>
+      </c>
+      <c r="N87">
+        <v>2.222006252307156e-14</v>
+      </c>
+      <c r="O87">
+        <v>2.222006252307156e-14</v>
+      </c>
+      <c r="P87">
+        <v>0.00041318827560370423</v>
+      </c>
+      <c r="Q87">
+        <v>2.222006252307156e-14</v>
+      </c>
+      <c r="R87">
+        <v>0.62387866718730967</v>
+      </c>
+      <c r="S87">
+        <v>2.222006252307156e-14</v>
+      </c>
+      <c r="T87">
+        <v>17</v>
+      </c>
+      <c r="U87">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B88">
+        <v>7.4322731911205851e-06</v>
+      </c>
+      <c r="C88">
+        <v>2.2207517550179227e-14</v>
+      </c>
+      <c r="D88">
+        <v>0.0017115956366479388</v>
+      </c>
+      <c r="E88">
+        <v>0.00020024426290494928</v>
+      </c>
+      <c r="F88">
+        <v>0.0013569234107391002</v>
+      </c>
+      <c r="G88">
+        <v>0.32332576692281906</v>
+      </c>
+      <c r="H88">
+        <v>2.2207517550179227e-14</v>
+      </c>
+      <c r="I88">
+        <v>2.2207517550179227e-14</v>
+      </c>
+      <c r="J88">
+        <v>2.2207517550179227e-14</v>
+      </c>
+      <c r="K88">
+        <v>2.2207517550179227e-14</v>
+      </c>
+      <c r="L88">
+        <v>0.0014823590600216467</v>
+      </c>
+      <c r="M88">
+        <v>2.2207517550179227e-14</v>
+      </c>
+      <c r="N88">
+        <v>2.2207517550179227e-14</v>
+      </c>
+      <c r="O88">
+        <v>2.2207517550179227e-14</v>
+      </c>
+      <c r="P88">
+        <v>0.00052366673527157377</v>
+      </c>
+      <c r="Q88">
+        <v>2.2207517550179227e-14</v>
+      </c>
+      <c r="R88">
+        <v>0.67139201169818252</v>
+      </c>
+      <c r="S88">
+        <v>2.2207517550179227e-14</v>
+      </c>
+      <c r="T88">
+        <v>17</v>
+      </c>
+      <c r="U88">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B89">
+        <v>0.030005097939594834</v>
+      </c>
+      <c r="C89">
+        <v>2.2219182941213777e-14</v>
+      </c>
+      <c r="D89">
+        <v>0.0077373195838051747</v>
+      </c>
+      <c r="E89">
+        <v>0.022123980679987408</v>
+      </c>
+      <c r="F89">
+        <v>0.0064006639024413768</v>
+      </c>
+      <c r="G89">
+        <v>0.014290158794105286</v>
+      </c>
+      <c r="H89">
+        <v>2.2219182941213777e-14</v>
+      </c>
+      <c r="I89">
+        <v>2.2219182941213777e-14</v>
+      </c>
+      <c r="J89">
+        <v>2.2219182941213777e-14</v>
+      </c>
+      <c r="K89">
+        <v>2.2219182941213777e-14</v>
+      </c>
+      <c r="L89">
+        <v>0.0049889068939215535</v>
+      </c>
+      <c r="M89">
+        <v>2.2219182941213777e-14</v>
+      </c>
+      <c r="N89">
+        <v>2.2219182941213777e-14</v>
+      </c>
+      <c r="O89">
+        <v>2.2219182941213777e-14</v>
+      </c>
+      <c r="P89">
+        <v>0.0013142499971903496</v>
+      </c>
+      <c r="Q89">
+        <v>2.2219182941213777e-14</v>
+      </c>
+      <c r="R89">
+        <v>0.91313962220873179</v>
+      </c>
+      <c r="S89">
+        <v>2.2219182941213777e-14</v>
+      </c>
+      <c r="T89">
+        <v>17</v>
+      </c>
+      <c r="U89">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B90">
+        <v>1.8784961132310633e-07</v>
+      </c>
+      <c r="C90">
+        <v>2.2205548186981893e-14</v>
+      </c>
+      <c r="D90">
+        <v>0.00053670812161920277</v>
+      </c>
+      <c r="E90">
+        <v>0.001448678403013788</v>
+      </c>
+      <c r="F90">
+        <v>0.050038435557713833</v>
+      </c>
+      <c r="G90">
+        <v>0.0090208199880767847</v>
+      </c>
+      <c r="H90">
+        <v>2.2205548186981893e-14</v>
+      </c>
+      <c r="I90">
+        <v>2.2205548186981893e-14</v>
+      </c>
+      <c r="J90">
+        <v>2.2205548186981893e-14</v>
+      </c>
+      <c r="K90">
+        <v>2.2205548186981893e-14</v>
+      </c>
+      <c r="L90">
+        <v>0.0062670116345454278</v>
+      </c>
+      <c r="M90">
+        <v>2.2205548186981893e-14</v>
+      </c>
+      <c r="N90">
+        <v>2.2205548186981893e-14</v>
+      </c>
+      <c r="O90">
+        <v>2.2205548186981893e-14</v>
+      </c>
+      <c r="P90">
+        <v>0.001246983948313844</v>
+      </c>
+      <c r="Q90">
+        <v>2.2205548186981893e-14</v>
+      </c>
+      <c r="R90">
+        <v>0.93144117449688379</v>
+      </c>
+      <c r="S90">
+        <v>2.2205548186981893e-14</v>
+      </c>
+      <c r="T90">
+        <v>17</v>
+      </c>
+      <c r="U90">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B91">
+        <v>3.3753289170879371e-07</v>
+      </c>
+      <c r="C91">
+        <v>2.2206661689807452e-14</v>
+      </c>
+      <c r="D91">
+        <v>0.00083461712702221627</v>
+      </c>
+      <c r="E91">
+        <v>0.00064266532766016685</v>
+      </c>
+      <c r="F91">
+        <v>0.016074629857092758</v>
+      </c>
+      <c r="G91">
+        <v>0.0099065565138337225</v>
+      </c>
+      <c r="H91">
+        <v>2.2206661689807452e-14</v>
+      </c>
+      <c r="I91">
+        <v>2.2206661689807452e-14</v>
+      </c>
+      <c r="J91">
+        <v>2.2206661689807452e-14</v>
+      </c>
+      <c r="K91">
+        <v>2.2206661689807452e-14</v>
+      </c>
+      <c r="L91">
+        <v>0.01001851346768484</v>
+      </c>
+      <c r="M91">
+        <v>2.2206661689807452e-14</v>
+      </c>
+      <c r="N91">
+        <v>2.2206661689807452e-14</v>
+      </c>
+      <c r="O91">
+        <v>2.2206661689807452e-14</v>
+      </c>
+      <c r="P91">
+        <v>0.0017277962349165543</v>
+      </c>
+      <c r="Q91">
+        <v>2.2206661689807452e-14</v>
+      </c>
+      <c r="R91">
+        <v>0.96079488393867607</v>
+      </c>
+      <c r="S91">
+        <v>2.2206661689807452e-14</v>
+      </c>
+      <c r="T91">
+        <v>17</v>
+      </c>
+      <c r="U91">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B92">
+        <v>0.00063435832761576873</v>
+      </c>
+      <c r="C92">
+        <v>2.2206090617312648e-14</v>
+      </c>
+      <c r="D92">
+        <v>0.0062298363680521494</v>
+      </c>
+      <c r="E92">
+        <v>0.37984744557949873</v>
+      </c>
+      <c r="F92">
+        <v>0.025058750011436766</v>
+      </c>
+      <c r="G92">
+        <v>0.0065074927532954904</v>
+      </c>
+      <c r="H92">
+        <v>2.2206090617312648e-14</v>
+      </c>
+      <c r="I92">
+        <v>2.2206090617312648e-14</v>
+      </c>
+      <c r="J92">
+        <v>2.2206090617312648e-14</v>
+      </c>
+      <c r="K92">
+        <v>2.2206090617312648e-14</v>
+      </c>
+      <c r="L92">
+        <v>8.6108061087461488e-05</v>
+      </c>
+      <c r="M92">
+        <v>2.2206090617312648e-14</v>
+      </c>
+      <c r="N92">
+        <v>2.2206090617312648e-14</v>
+      </c>
+      <c r="O92">
+        <v>2.2206090617312648e-14</v>
+      </c>
+      <c r="P92">
+        <v>0.0052090693965808803</v>
+      </c>
+      <c r="Q92">
+        <v>2.2206090617312648e-14</v>
+      </c>
+      <c r="R92">
+        <v>0.57642693950221069</v>
+      </c>
+      <c r="S92">
+        <v>2.2206090617312648e-14</v>
+      </c>
+      <c r="T92">
+        <v>17</v>
+      </c>
+      <c r="U92">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B93">
+        <v>6.3317490235451482e-06</v>
+      </c>
+      <c r="C93">
+        <v>2.2207143491113483e-14</v>
+      </c>
+      <c r="D93">
+        <v>0.0012345764653945029</v>
+      </c>
+      <c r="E93">
+        <v>0.00081276800815235711</v>
+      </c>
+      <c r="F93">
+        <v>0.016108883734884189</v>
+      </c>
+      <c r="G93">
+        <v>0.020712998059497157</v>
+      </c>
+      <c r="H93">
+        <v>2.2207143491113483e-14</v>
+      </c>
+      <c r="I93">
+        <v>2.2207143491113483e-14</v>
+      </c>
+      <c r="J93">
+        <v>2.2207143491113483e-14</v>
+      </c>
+      <c r="K93">
+        <v>2.2207143491113483e-14</v>
+      </c>
+      <c r="L93">
+        <v>0.00060730326269728722</v>
+      </c>
+      <c r="M93">
+        <v>2.2207143491113483e-14</v>
+      </c>
+      <c r="N93">
+        <v>2.2207143491113483e-14</v>
+      </c>
+      <c r="O93">
+        <v>2.2207143491113483e-14</v>
+      </c>
+      <c r="P93">
+        <v>0.0047052939701602778</v>
+      </c>
+      <c r="Q93">
+        <v>2.2207143491113483e-14</v>
+      </c>
+      <c r="R93">
+        <v>0.95581184474996861</v>
+      </c>
+      <c r="S93">
+        <v>2.2207143491113483e-14</v>
+      </c>
+      <c r="T93">
+        <v>17</v>
+      </c>
+      <c r="U93">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B94">
+        <v>8.6866559218111842e-09</v>
+      </c>
+      <c r="C94">
+        <v>2.2201615785391096e-14</v>
+      </c>
+      <c r="D94">
+        <v>0.0010016577798702656</v>
+      </c>
+      <c r="E94">
+        <v>0.022849521589792452</v>
+      </c>
+      <c r="F94">
+        <v>0.0014537389645065553</v>
+      </c>
+      <c r="G94">
+        <v>3.5370705759771399e-11</v>
+      </c>
+      <c r="H94">
+        <v>2.2201615785391096e-14</v>
+      </c>
+      <c r="I94">
+        <v>2.2201615785391096e-14</v>
+      </c>
+      <c r="J94">
+        <v>2.2201615785391096e-14</v>
+      </c>
+      <c r="K94">
+        <v>2.2201615785391096e-14</v>
+      </c>
+      <c r="L94">
+        <v>0.00044619498933546269</v>
+      </c>
+      <c r="M94">
+        <v>2.2201615785391096e-14</v>
+      </c>
+      <c r="N94">
+        <v>2.2201615785391096e-14</v>
+      </c>
+      <c r="O94">
+        <v>2.2201615785391096e-14</v>
+      </c>
+      <c r="P94">
+        <v>0.0024223677375954373</v>
+      </c>
+      <c r="Q94">
+        <v>2.2201615785391096e-14</v>
+      </c>
+      <c r="R94">
+        <v>1.318094997058367e-09</v>
+      </c>
+      <c r="S94">
+        <v>0.97182650889857836</v>
+      </c>
+      <c r="T94">
+        <v>18</v>
+      </c>
+      <c r="U94">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B95">
+        <v>7.5475047670336333e-09</v>
+      </c>
+      <c r="C95">
+        <v>2.2202764008273125e-14</v>
+      </c>
+      <c r="D95">
+        <v>0.00071606448552070912</v>
+      </c>
+      <c r="E95">
+        <v>0.016405575705142221</v>
+      </c>
+      <c r="F95">
+        <v>0.0027980790787549181</v>
+      </c>
+      <c r="G95">
+        <v>4.3965707443249026e-10</v>
+      </c>
+      <c r="H95">
+        <v>2.2202764008273125e-14</v>
+      </c>
+      <c r="I95">
+        <v>2.2202764008273125e-14</v>
+      </c>
+      <c r="J95">
+        <v>2.2202764008273125e-14</v>
+      </c>
+      <c r="K95">
+        <v>2.2202764008273125e-14</v>
+      </c>
+      <c r="L95">
+        <v>8.4009984956489621e-05</v>
+      </c>
+      <c r="M95">
+        <v>2.2202764008273125e-14</v>
+      </c>
+      <c r="N95">
+        <v>2.2202764008273125e-14</v>
+      </c>
+      <c r="O95">
+        <v>2.2202764008273125e-14</v>
+      </c>
+      <c r="P95">
+        <v>0.0025067652073743302</v>
+      </c>
+      <c r="Q95">
+        <v>2.2202764008273125e-14</v>
+      </c>
+      <c r="R95">
+        <v>8.3128180949452197e-09</v>
+      </c>
+      <c r="S95">
+        <v>0.97748948923807166</v>
+      </c>
+      <c r="T95">
+        <v>18</v>
+      </c>
+      <c r="U95">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B96">
+        <v>5.5296116654298466e-09</v>
+      </c>
+      <c r="C96">
+        <v>2.2203338035044042e-14</v>
+      </c>
+      <c r="D96">
+        <v>0.00085742073098985904</v>
+      </c>
+      <c r="E96">
+        <v>0.019276722073034238</v>
+      </c>
+      <c r="F96">
+        <v>0.0010121543045477415</v>
+      </c>
+      <c r="G96">
+        <v>9.9159488117801106e-12</v>
+      </c>
+      <c r="H96">
+        <v>2.2203338035044042e-14</v>
+      </c>
+      <c r="I96">
+        <v>2.2203338035044042e-14</v>
+      </c>
+      <c r="J96">
+        <v>2.2203338035044042e-14</v>
+      </c>
+      <c r="K96">
+        <v>2.2203338035044042e-14</v>
+      </c>
+      <c r="L96">
+        <v>0.0010400975410773778</v>
+      </c>
+      <c r="M96">
+        <v>2.2203338035044042e-14</v>
+      </c>
+      <c r="N96">
+        <v>2.2203338035044042e-14</v>
+      </c>
+      <c r="O96">
+        <v>2.2203338035044042e-14</v>
+      </c>
+      <c r="P96">
+        <v>0.0055154916084020691</v>
+      </c>
+      <c r="Q96">
+        <v>2.2203338035044042e-14</v>
+      </c>
+      <c r="R96">
+        <v>1.3174759678167824e-09</v>
+      </c>
+      <c r="S96">
+        <v>0.97229810688474538</v>
+      </c>
+      <c r="T96">
+        <v>18</v>
+      </c>
+      <c r="U96">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B97">
+        <v>7.2349783829426181e-09</v>
+      </c>
+      <c r="C97">
+        <v>2.2204161366115715e-14</v>
+      </c>
+      <c r="D97">
+        <v>0.00070706824882997717</v>
+      </c>
+      <c r="E97">
+        <v>0.016493869857921912</v>
+      </c>
+      <c r="F97">
+        <v>0.003659524047904933</v>
+      </c>
+      <c r="G97">
+        <v>4.5707415706540931e-11</v>
+      </c>
+      <c r="H97">
+        <v>2.2204161366115715e-14</v>
+      </c>
+      <c r="I97">
+        <v>2.2204161366115715e-14</v>
+      </c>
+      <c r="J97">
+        <v>2.2204161366115715e-14</v>
+      </c>
+      <c r="K97">
+        <v>2.2204161366115715e-14</v>
+      </c>
+      <c r="L97">
+        <v>0.00021693239248954957</v>
+      </c>
+      <c r="M97">
+        <v>2.2204161366115715e-14</v>
+      </c>
+      <c r="N97">
+        <v>2.2204161366115715e-14</v>
+      </c>
+      <c r="O97">
+        <v>2.2204161366115715e-14</v>
+      </c>
+      <c r="P97">
+        <v>0.0051927815969180493</v>
+      </c>
+      <c r="Q97">
+        <v>2.2204161366115715e-14</v>
+      </c>
+      <c r="R97">
+        <v>2.7722960406942276e-09</v>
+      </c>
+      <c r="S97">
+        <v>0.97372981380275392</v>
+      </c>
+      <c r="T97">
+        <v>18</v>
+      </c>
+      <c r="U97">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>